--- a/Heliusapp_project_implementation_plan.xlsx
+++ b/Heliusapp_project_implementation_plan.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HELIUS\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HELIUS\Documents\projectplan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CADC039-7F4B-4518-8549-48B664ABC0AF}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F37BACD8-C57B-405C-A746-3E8F03B0F40B}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10416" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10416" firstSheet="5" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Alltasks" sheetId="1" r:id="rId1"/>
@@ -25,9 +25,10 @@
     <sheet name="Payslips" sheetId="13" r:id="rId10"/>
     <sheet name="Audittrail" sheetId="15" r:id="rId11"/>
     <sheet name="common" sheetId="17" r:id="rId12"/>
+    <sheet name="Risks" sheetId="19" r:id="rId13"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Alltasks!$A$2:$D$92</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Alltasks!$A$2:$D$95</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">Audittrail!$B$2:$E$9</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Claims!$B$1:$E$9</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'Client Master'!$B$2:$E$10</definedName>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="195">
   <si>
     <t>Task</t>
   </si>
@@ -359,9 +360,6 @@
     <t>Employee dash board UI (static)</t>
   </si>
   <si>
-    <t>End date = 20-07-2018</t>
-  </si>
-  <si>
     <t>Manual timesheet</t>
   </si>
   <si>
@@ -371,15 +369,9 @@
     <t>Start date = 23-07-2018</t>
   </si>
   <si>
-    <t>End date = 03-08-2018</t>
-  </si>
-  <si>
     <t>Finalizing manual timesheet template</t>
   </si>
   <si>
-    <t>`</t>
-  </si>
-  <si>
     <t>REST service to process employee leave details  from RTS timesheet and updating DB</t>
   </si>
   <si>
@@ -389,21 +381,12 @@
     <t>Start date = 06-08-2018</t>
   </si>
   <si>
-    <t>End date = 14-08-2018</t>
-  </si>
-  <si>
     <t>Fetching the employee request processing activity from backend and displayed weekly activity dashboard</t>
   </si>
   <si>
     <t>Fetching the data for internal HR actions dashboard from back end  and displaying dashboard</t>
   </si>
   <si>
-    <t>Start date = 16-08-2018</t>
-  </si>
-  <si>
-    <t>end date = 24-08-2018</t>
-  </si>
-  <si>
     <t>Capture the new claim details from claim UI and send to backend for saving into DB</t>
   </si>
   <si>
@@ -411,12 +394,6 @@
   </si>
   <si>
     <t>Entire team</t>
-  </si>
-  <si>
-    <t>Start date = 27-08-2018</t>
-  </si>
-  <si>
-    <t>End date = 31-08-02018</t>
   </si>
   <si>
     <t>Updating the existing employee DB schema as per the 
@@ -426,9 +403,6 @@
     <t>end to end integration</t>
   </si>
   <si>
-    <t>start date = 03-09-2018</t>
-  </si>
-  <si>
     <t>* Rajesh will start collecting the data from much earlier.</t>
   </si>
   <si>
@@ -445,12 +419,6 @@
     <t>start date: 16-07-2018</t>
   </si>
   <si>
-    <t>end date : 28-07-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">start date </t>
-  </si>
-  <si>
     <t>end date</t>
   </si>
   <si>
@@ -508,9 +476,6 @@
     <t>Updating the create, update actions into audit trail table</t>
   </si>
   <si>
-    <t>end date = 05-10-2018</t>
-  </si>
-  <si>
     <t>popup to show employee personal details in employee dashboard for view and update</t>
   </si>
   <si>
@@ -523,24 +488,6 @@
     <t>Popup to show HR touch points in employee dashboard</t>
   </si>
   <si>
-    <t>end date = 14-09-2018</t>
-  </si>
-  <si>
-    <t>start date = 17-09-2018</t>
-  </si>
-  <si>
-    <t>end date = 28-09-2018</t>
-  </si>
-  <si>
-    <t>start date = 1-10-2018</t>
-  </si>
-  <si>
-    <t>start date =08-10-2018</t>
-  </si>
-  <si>
-    <t>end date = 15-10-2018</t>
-  </si>
-  <si>
     <t>Batchjob to load payslips for every month into DB</t>
   </si>
   <si>
@@ -554,6 +501,147 @@
   </si>
   <si>
     <t>start date</t>
+  </si>
+  <si>
+    <t>Development</t>
+  </si>
+  <si>
+    <t>Feature</t>
+  </si>
+  <si>
+    <t>1st round testing</t>
+  </si>
+  <si>
+    <t>1st round bug fixing</t>
+  </si>
+  <si>
+    <t>2nd round testing</t>
+  </si>
+  <si>
+    <t>2nd round bug fixing</t>
+  </si>
+  <si>
+    <t>Exit criteria</t>
+  </si>
+  <si>
+    <t>Final delivery date</t>
+  </si>
+  <si>
+    <t>Final round testing(end users)</t>
+  </si>
+  <si>
+    <t>end user signoff</t>
+  </si>
+  <si>
+    <t>shekhar sign off</t>
+  </si>
+  <si>
+    <t>End date = 06-08-2018</t>
+  </si>
+  <si>
+    <t>End date = 24-08-2018</t>
+  </si>
+  <si>
+    <t>End date = 04-09-2018</t>
+  </si>
+  <si>
+    <t>end date : 24-08-2018</t>
+  </si>
+  <si>
+    <t>Start date = 18-08-2018</t>
+  </si>
+  <si>
+    <t>end date = 21-09-2018</t>
+  </si>
+  <si>
+    <t>Start date = 03-09-2018</t>
+  </si>
+  <si>
+    <t>End date = 28-09-02018</t>
+  </si>
+  <si>
+    <t>start date = 12-09-2018</t>
+  </si>
+  <si>
+    <t>end date = 16-10-2018</t>
+  </si>
+  <si>
+    <t>start date = 27-09-2018</t>
+  </si>
+  <si>
+    <t>end date = 31-10-2018</t>
+  </si>
+  <si>
+    <t>start date = 15-10-2018</t>
+  </si>
+  <si>
+    <t>end date = 09-11-2018</t>
+  </si>
+  <si>
+    <t>start date 23-10-2018</t>
+  </si>
+  <si>
+    <t>end date = 23-11-2018</t>
+  </si>
+  <si>
+    <t>Risks</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>SMS gateway not working</t>
+  </si>
+  <si>
+    <t>if SMS gateway fails, app can not send the SMS regarding the timesheet status or request status to employees</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Need to see whether we can fall back on secondary SMS gateway at runtime. </t>
+  </si>
+  <si>
+    <t>Need to closely monitor the server status on a daily basis.</t>
+  </si>
+  <si>
+    <t>Need to closely engage with client network team so that we will get information sooner than later in case of any firewall changes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">whenever an update done to firewall at the client, our app might get blocked. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mitigation </t>
+  </si>
+  <si>
+    <t>Wildfly server (backend)  fails or slows down</t>
+  </si>
+  <si>
+    <t>DB backup fails</t>
+  </si>
+  <si>
+    <t>DB backups are scheduled every day and it happens automatically</t>
+  </si>
+  <si>
+    <t>DBA should monitor the DB backups tasks closely and make sure that he is notified immediately whenever any backup fails</t>
+  </si>
+  <si>
+    <t>After continuously running for days together, wildfly server may run of memory or slowsdown.</t>
+  </si>
+  <si>
+    <t>Type of Risk</t>
+  </si>
+  <si>
+    <t>Technical</t>
+  </si>
+  <si>
+    <t>App team member is absent</t>
+  </si>
+  <si>
+    <t>non-technical</t>
+  </si>
+  <si>
+    <t>team member onleave for more days on health grounds, family emergency etc..</t>
+  </si>
+  <si>
+    <t>cross team learning might help. But, in a small team, where everybody is busy with their work, is this feasible?</t>
   </si>
 </sst>
 </file>
@@ -1060,7 +1148,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1076,6 +1164,15 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="11" fillId="6" borderId="4" xfId="11" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="11" fillId="6" borderId="4" xfId="11" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="11" fillId="6" borderId="4" xfId="11" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1432,10 +1529,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:J95"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B93" sqref="B93:D95"/>
     </sheetView>
   </sheetViews>
@@ -1468,7 +1564,7 @@
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
     </row>
-    <row r="3" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>3</v>
       </c>
@@ -1479,7 +1575,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:10" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>6</v>
       </c>
@@ -1490,7 +1586,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>8</v>
       </c>
@@ -1501,7 +1597,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>10</v>
       </c>
@@ -1512,7 +1608,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>11</v>
       </c>
@@ -1523,7 +1619,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>12</v>
       </c>
@@ -1534,7 +1630,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>13</v>
       </c>
@@ -1545,7 +1641,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>15</v>
       </c>
@@ -1556,7 +1652,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>16</v>
       </c>
@@ -1567,7 +1663,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>17</v>
       </c>
@@ -1578,7 +1674,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>18</v>
       </c>
@@ -1589,7 +1685,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>19</v>
       </c>
@@ -1600,7 +1696,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>21</v>
       </c>
@@ -1611,7 +1707,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>22</v>
       </c>
@@ -1622,7 +1718,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>22</v>
       </c>
@@ -1633,7 +1729,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>24</v>
       </c>
@@ -1644,7 +1740,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>25</v>
       </c>
@@ -1655,7 +1751,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>26</v>
       </c>
@@ -1666,7 +1762,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>28</v>
       </c>
@@ -1677,7 +1773,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>29</v>
       </c>
@@ -1688,7 +1784,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>31</v>
       </c>
@@ -1699,7 +1795,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>32</v>
       </c>
@@ -1710,7 +1806,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>33</v>
       </c>
@@ -1721,7 +1817,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>34</v>
       </c>
@@ -1732,7 +1828,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>35</v>
       </c>
@@ -1743,7 +1839,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>36</v>
       </c>
@@ -1754,7 +1850,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>37</v>
       </c>
@@ -1765,7 +1861,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>38</v>
       </c>
@@ -1776,7 +1872,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>39</v>
       </c>
@@ -1787,7 +1883,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>22</v>
       </c>
@@ -1798,7 +1894,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
         <v>40</v>
       </c>
@@ -1809,7 +1905,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="34" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
         <v>41</v>
       </c>
@@ -1820,7 +1916,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
         <v>43</v>
       </c>
@@ -1831,7 +1927,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
         <v>44</v>
       </c>
@@ -1842,7 +1938,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
         <v>45</v>
       </c>
@@ -1853,7 +1949,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
         <v>46</v>
       </c>
@@ -1864,7 +1960,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="39" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
         <v>47</v>
       </c>
@@ -1875,7 +1971,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
         <v>48</v>
       </c>
@@ -1886,7 +1982,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="41" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
         <v>49</v>
       </c>
@@ -1897,7 +1993,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
         <v>50</v>
       </c>
@@ -1908,7 +2004,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="43" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B43" s="1" t="s">
         <v>51</v>
       </c>
@@ -1919,7 +2015,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
         <v>52</v>
       </c>
@@ -1930,7 +2026,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="45" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
         <v>22</v>
       </c>
@@ -1941,7 +2037,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="46" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
         <v>53</v>
       </c>
@@ -1952,7 +2048,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="47" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
         <v>54</v>
       </c>
@@ -1963,7 +2059,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
         <v>56</v>
       </c>
@@ -1974,7 +2070,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
         <v>57</v>
       </c>
@@ -1985,7 +2081,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="50" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B50" s="1" t="s">
         <v>58</v>
       </c>
@@ -1996,7 +2092,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B51" t="s">
         <v>59</v>
       </c>
@@ -2007,7 +2103,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="52" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B52" t="s">
         <v>60</v>
       </c>
@@ -2018,7 +2114,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="53" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B53" s="1" t="s">
         <v>61</v>
       </c>
@@ -2029,7 +2125,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>63</v>
       </c>
@@ -2043,7 +2139,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B55" t="s">
         <v>65</v>
       </c>
@@ -2054,7 +2150,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="56" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B56" s="1" t="s">
         <v>66</v>
       </c>
@@ -2065,7 +2161,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="57" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B57" s="1" t="s">
         <v>67</v>
       </c>
@@ -2076,7 +2172,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="58" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B58" t="s">
         <v>68</v>
       </c>
@@ -2087,7 +2183,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="59" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B59" t="s">
         <v>70</v>
       </c>
@@ -2098,7 +2194,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B60" s="1" t="s">
         <v>71</v>
       </c>
@@ -2109,7 +2205,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B61" s="1" t="s">
         <v>72</v>
       </c>
@@ -2120,7 +2216,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="62" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B62" s="1" t="s">
         <v>73</v>
       </c>
@@ -2131,7 +2227,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B63" t="s">
         <v>74</v>
       </c>
@@ -2142,7 +2238,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="64" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B64" t="s">
         <v>75</v>
       </c>
@@ -2153,7 +2249,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="65" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B65" t="s">
         <v>76</v>
       </c>
@@ -2164,7 +2260,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="66" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B66" t="s">
         <v>78</v>
       </c>
@@ -2175,7 +2271,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B67" t="s">
         <v>79</v>
       </c>
@@ -2186,7 +2282,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="68" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B68" t="s">
         <v>80</v>
       </c>
@@ -2197,7 +2293,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="69" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B69" t="s">
         <v>81</v>
       </c>
@@ -2208,7 +2304,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="70" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B70" t="s">
         <v>82</v>
       </c>
@@ -2219,7 +2315,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="71" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B71" t="s">
         <v>83</v>
       </c>
@@ -2230,7 +2326,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="72" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B72" t="s">
         <v>84</v>
       </c>
@@ -2241,7 +2337,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="73" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B73" t="s">
         <v>87</v>
       </c>
@@ -2252,7 +2348,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="74" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B74" t="s">
         <v>89</v>
       </c>
@@ -2265,10 +2361,10 @@
     </row>
     <row r="75" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B75" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="C75" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="D75" t="s">
         <v>20</v>
@@ -2276,10 +2372,10 @@
     </row>
     <row r="76" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B76" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="C76" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="D76" t="s">
         <v>20</v>
@@ -2287,21 +2383,21 @@
     </row>
     <row r="77" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B77" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
       <c r="C77" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="D77" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
     </row>
     <row r="78" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B78" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="C78" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="D78" t="s">
         <v>5</v>
@@ -2309,10 +2405,10 @@
     </row>
     <row r="79" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B79" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="C79" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="D79" t="s">
         <v>14</v>
@@ -2323,7 +2419,7 @@
         <v>22</v>
       </c>
       <c r="C80" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="D80" t="s">
         <v>23</v>
@@ -2331,95 +2427,95 @@
     </row>
     <row r="81" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B81" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="C81" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="D81" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="82" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B82" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="C82" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="D82" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="83" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B83" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="C83" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="D83" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="84" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B84" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="C84" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="D84" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="85" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B85" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="C85" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="D85" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="86" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B86" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="C86" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="D86" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="87" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B87" t="s">
         <v>22</v>
       </c>
       <c r="C87" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="D87" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="88" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B88" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="C88" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="D88" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="89" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B89" s="1" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="C89" t="s">
         <v>62</v>
@@ -2428,9 +2524,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="90" spans="2:4" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B90" s="1" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="C90" t="s">
         <v>62</v>
@@ -2439,9 +2535,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="91" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B91" s="1" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="C91" t="s">
         <v>62</v>
@@ -2450,9 +2546,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="92" spans="2:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B92" s="1" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="C92" t="s">
         <v>62</v>
@@ -2463,7 +2559,7 @@
     </row>
     <row r="93" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B93" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
       <c r="C93" t="s">
         <v>90</v>
@@ -2495,13 +2591,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:D92" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="Payslips"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A2:D95" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2511,7 +2601,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2547,10 +2637,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="C3" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -2561,10 +2651,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="C4" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="D4" t="s">
         <v>20</v>
@@ -2575,13 +2665,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
       <c r="C5" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="D5" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -2589,10 +2679,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="C6" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="D6" t="s">
         <v>5</v>
@@ -2603,10 +2693,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="C7" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="D7" t="s">
         <v>14</v>
@@ -2620,7 +2710,7 @@
         <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="D8" t="s">
         <v>23</v>
@@ -2631,10 +2721,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="C9" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="D9" t="s">
         <v>27</v>
@@ -2645,12 +2735,12 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>150</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -2665,7 +2755,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E2"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2700,10 +2790,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="C3" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -2714,10 +2804,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="C4" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="D4" t="s">
         <v>5</v>
@@ -2728,10 +2818,10 @@
     </row>
     <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="C5" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="D5" t="s">
         <v>14</v>
@@ -2742,10 +2832,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="C6" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="D6" t="s">
         <v>5</v>
@@ -2756,10 +2846,10 @@
     </row>
     <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="C7" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="D7" t="s">
         <v>14</v>
@@ -2773,7 +2863,7 @@
         <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="D8" t="s">
         <v>27</v>
@@ -2784,10 +2874,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="C9" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="D9" t="s">
         <v>23</v>
@@ -2798,12 +2888,12 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -2825,9 +2915,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E54D23C-9246-4894-908D-A10DE509821D}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2862,7 +2950,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
       <c r="C3" t="s">
         <v>90</v>
@@ -2904,7 +2992,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
       <c r="C10" s="8">
         <v>43290</v>
@@ -2912,7 +3000,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="C11" s="8">
         <v>43312</v>
@@ -2924,259 +3012,735 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DB958AD-F379-4576-B3A3-53BB906DC87F}">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="36.5546875" customWidth="1"/>
+    <col min="2" max="2" width="36.5546875" style="11" customWidth="1"/>
+    <col min="3" max="3" width="69" style="1" customWidth="1"/>
+    <col min="4" max="4" width="55.6640625" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>184</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>185</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>191</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A160B2E2-282E-4AB4-AF25-F319217CEA66}">
-  <dimension ref="B2:F31"/>
+  <dimension ref="B1:P18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="21.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.21875" customWidth="1"/>
+    <col min="6" max="6" width="18.44140625" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" customWidth="1"/>
+    <col min="8" max="8" width="15.109375" customWidth="1"/>
+    <col min="9" max="9" width="13.33203125" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" customWidth="1"/>
+    <col min="11" max="11" width="10.109375" customWidth="1"/>
+    <col min="12" max="12" width="11.5546875" customWidth="1"/>
+    <col min="13" max="13" width="13.109375" customWidth="1"/>
+    <col min="14" max="14" width="17.88671875" customWidth="1"/>
+    <col min="15" max="15" width="22.5546875" customWidth="1"/>
+    <col min="16" max="16" width="16.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B2" s="6" t="s">
+    <row r="1" spans="2:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="N1" s="14"/>
+      <c r="O1" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="2" spans="2:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C2" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B3" s="6" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
-        <v>130</v>
       </c>
       <c r="C3" s="7">
         <v>43290</v>
       </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
+      <c r="D3" s="7">
+        <v>43301</v>
+      </c>
+      <c r="E3" s="7">
+        <v>43304</v>
+      </c>
+      <c r="F3" s="7">
+        <v>43305</v>
+      </c>
+      <c r="G3" s="7">
+        <v>43306</v>
+      </c>
+      <c r="H3" s="7">
+        <v>43308</v>
+      </c>
+      <c r="I3" s="7">
+        <v>43311</v>
+      </c>
+      <c r="J3" s="7">
+        <v>43312</v>
+      </c>
+      <c r="K3" s="7">
+        <v>43313</v>
+      </c>
+      <c r="L3" s="7">
+        <v>43314</v>
+      </c>
+      <c r="M3" s="7">
+        <v>43315</v>
+      </c>
+      <c r="N3" s="13">
+        <v>43315</v>
+      </c>
+      <c r="O3" t="s">
+        <v>157</v>
+      </c>
+      <c r="P3" s="7">
+        <v>43318</v>
+      </c>
+    </row>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B4" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C4" s="7">
+        <v>43304</v>
+      </c>
+      <c r="D4" s="7">
+        <v>43320</v>
+      </c>
+      <c r="E4" s="7">
+        <v>43321</v>
+      </c>
+      <c r="F4" s="7">
+        <v>43322</v>
+      </c>
+      <c r="G4" s="7">
+        <v>43325</v>
+      </c>
+      <c r="H4" s="7">
+        <v>43328</v>
+      </c>
+      <c r="I4" s="7">
+        <v>43329</v>
+      </c>
+      <c r="J4" s="7">
+        <v>43332</v>
+      </c>
+      <c r="K4" s="7">
+        <v>43333</v>
+      </c>
+      <c r="L4" s="7">
+        <v>43334</v>
+      </c>
+      <c r="M4" s="7">
+        <v>43335</v>
+      </c>
+      <c r="N4" s="7">
+        <v>43336</v>
+      </c>
+      <c r="O4" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="P4" s="7">
+        <v>43336</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B5" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="C5" s="13">
+        <v>43290</v>
+      </c>
+      <c r="D5" s="13">
+        <v>43312</v>
+      </c>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" t="s">
+        <v>158</v>
+      </c>
+      <c r="P5" s="7"/>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B6" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="13">
+        <v>43318</v>
+      </c>
+      <c r="D6" s="13">
+        <v>43329</v>
+      </c>
+      <c r="E6" s="7">
+        <v>43333</v>
+      </c>
+      <c r="F6" s="7">
+        <v>43334</v>
+      </c>
+      <c r="G6" s="7">
+        <v>43335</v>
+      </c>
+      <c r="H6" s="7">
+        <v>43336</v>
+      </c>
+      <c r="I6" s="7">
+        <v>43339</v>
+      </c>
+      <c r="J6" s="7">
+        <v>43340</v>
+      </c>
+      <c r="K6" s="7">
+        <v>43341</v>
+      </c>
+      <c r="L6" s="7">
+        <v>43342</v>
+      </c>
+      <c r="M6" s="7">
+        <v>43343</v>
+      </c>
+      <c r="N6" s="7">
+        <v>43343</v>
+      </c>
+      <c r="O6" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="P6" s="7">
+        <v>43347</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B7" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C7" s="13">
+        <v>43297</v>
+      </c>
+      <c r="D7" s="7">
+        <v>43308</v>
+      </c>
+      <c r="E7" s="13">
+        <v>43318</v>
+      </c>
+      <c r="F7" s="7">
+        <v>43319</v>
+      </c>
+      <c r="G7" s="7">
+        <v>43320</v>
+      </c>
+      <c r="H7" s="7">
+        <v>43321</v>
+      </c>
+      <c r="I7" s="7">
+        <v>43322</v>
+      </c>
+      <c r="J7" s="7">
+        <v>43325</v>
+      </c>
+      <c r="K7" s="7">
+        <v>43326</v>
+      </c>
+      <c r="L7" s="7">
+        <v>43328</v>
+      </c>
+      <c r="M7" s="7">
+        <v>43329</v>
+      </c>
+      <c r="N7" s="13">
+        <v>43330</v>
+      </c>
+      <c r="O7" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="P7" s="7">
+        <v>43336</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B8" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C8" s="7">
+        <v>43330</v>
+      </c>
+      <c r="D8" s="7">
+        <v>43343</v>
+      </c>
+      <c r="E8" s="7">
+        <v>43346</v>
+      </c>
+      <c r="F8" s="13">
+        <v>43348</v>
+      </c>
+      <c r="G8" s="7">
+        <v>43349</v>
+      </c>
+      <c r="H8" s="7">
+        <v>43350</v>
+      </c>
+      <c r="I8" s="7">
+        <v>43353</v>
+      </c>
+      <c r="J8" s="7">
+        <v>43354</v>
+      </c>
+      <c r="K8" s="7">
+        <v>43355</v>
+      </c>
+      <c r="L8" s="7">
+        <v>43357</v>
+      </c>
+      <c r="M8" s="7">
+        <v>43360</v>
+      </c>
+      <c r="N8" s="7">
+        <v>43361</v>
+      </c>
+      <c r="O8" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="P8" s="7">
+        <v>43364</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B9" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="7">
+        <v>43346</v>
+      </c>
+      <c r="D9" s="7">
+        <v>43354</v>
+      </c>
+      <c r="E9" s="7">
+        <v>43355</v>
+      </c>
+      <c r="F9" s="7">
+        <v>43357</v>
+      </c>
+      <c r="G9" s="7">
+        <v>43358</v>
+      </c>
+      <c r="H9" s="7">
+        <v>43359</v>
+      </c>
+      <c r="I9" s="7">
+        <v>43362</v>
+      </c>
+      <c r="J9" s="7">
+        <v>43363</v>
+      </c>
+      <c r="K9" s="7">
+        <v>43364</v>
+      </c>
+      <c r="L9" s="7">
+        <v>43368</v>
+      </c>
+      <c r="M9" s="7">
+        <v>43369</v>
+      </c>
+      <c r="N9" s="7">
+        <v>43370</v>
+      </c>
+      <c r="O9" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="P9" s="7">
+        <v>43371</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B10" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C10" s="7">
+        <v>43355</v>
+      </c>
+      <c r="D10" s="7">
+        <v>43369</v>
+      </c>
+      <c r="E10" s="7">
+        <v>43371</v>
+      </c>
+      <c r="F10" s="7">
+        <v>43741</v>
+      </c>
+      <c r="G10" s="7">
+        <v>43377</v>
+      </c>
+      <c r="H10" s="7">
+        <v>43378</v>
+      </c>
+      <c r="I10" s="7">
+        <v>43381</v>
+      </c>
+      <c r="J10" s="7">
+        <v>43382</v>
+      </c>
+      <c r="K10" s="7">
+        <v>43383</v>
+      </c>
+      <c r="L10" s="7">
+        <v>43384</v>
+      </c>
+      <c r="M10" s="7">
+        <v>43385</v>
+      </c>
+      <c r="N10" s="7">
+        <v>43388</v>
+      </c>
+      <c r="O10" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="P10" s="7">
+        <v>43389</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B11" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C11" s="7">
+        <v>43370</v>
+      </c>
+      <c r="D11" s="7">
+        <v>43385</v>
+      </c>
+      <c r="E11" s="7">
+        <v>43388</v>
+      </c>
+      <c r="F11" s="7">
+        <v>43390</v>
+      </c>
+      <c r="G11" s="7">
+        <v>43392</v>
+      </c>
+      <c r="H11" s="7">
+        <v>43395</v>
+      </c>
+      <c r="I11" s="7">
+        <v>43396</v>
+      </c>
+      <c r="J11" s="7">
+        <v>43397</v>
+      </c>
+      <c r="K11" s="7">
+        <v>43398</v>
+      </c>
+      <c r="L11" s="7">
+        <v>43399</v>
+      </c>
+      <c r="M11" s="7">
+        <v>43402</v>
+      </c>
+      <c r="N11" s="7">
+        <v>43403</v>
+      </c>
+      <c r="O11" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="P11" s="7">
+        <v>43404</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B12" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C12" s="7">
+        <v>43388</v>
+      </c>
+      <c r="D12" s="7">
+        <v>43395</v>
+      </c>
+      <c r="E12" s="7">
+        <v>43398</v>
+      </c>
+      <c r="F12" s="7">
+        <v>43399</v>
+      </c>
+      <c r="G12" s="7">
+        <v>43402</v>
+      </c>
+      <c r="H12" s="7">
+        <v>43403</v>
+      </c>
+      <c r="I12" s="7">
+        <v>43404</v>
+      </c>
+      <c r="J12" s="7">
+        <v>43405</v>
+      </c>
+      <c r="K12" s="7">
+        <v>43406</v>
+      </c>
+      <c r="L12" s="7">
+        <v>43409</v>
+      </c>
+      <c r="M12" s="7">
+        <v>43410</v>
+      </c>
+      <c r="N12" s="7">
+        <v>43411</v>
+      </c>
+      <c r="O12" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="P12" s="7">
+        <v>43413</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B13" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="C4" s="7">
-        <v>43301</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B5" s="6" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
-        <v>130</v>
-      </c>
-      <c r="C6" s="7">
-        <v>43304</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
-        <v>131</v>
-      </c>
-      <c r="C7" s="7">
-        <v>43315</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B8" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
-        <v>130</v>
-      </c>
-      <c r="C9" s="7">
-        <v>43318</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
-        <v>131</v>
-      </c>
-      <c r="C10" s="7">
-        <v>43326</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B11" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="F11" s="7"/>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
-        <v>130</v>
-      </c>
-      <c r="C12" s="7">
-        <v>43297</v>
-      </c>
-      <c r="E12" t="s">
-        <v>130</v>
-      </c>
-      <c r="F12" s="7">
-        <v>43290</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B13" t="s">
-        <v>131</v>
-      </c>
       <c r="C13" s="7">
-        <v>43309</v>
-      </c>
-      <c r="E13" t="s">
-        <v>131</v>
+        <v>43396</v>
+      </c>
+      <c r="D13" s="7">
+        <v>43409</v>
+      </c>
+      <c r="E13" s="7">
+        <v>43412</v>
       </c>
       <c r="F13" s="7">
-        <v>43312</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B14" s="6" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B15" t="s">
-        <v>130</v>
-      </c>
-      <c r="C15" s="7">
-        <v>43328</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B16" t="s">
-        <v>131</v>
-      </c>
-      <c r="C16" s="7">
-        <v>43336</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B17" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B18" t="s">
-        <v>130</v>
-      </c>
-      <c r="C18" s="7">
-        <v>43339</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B19" t="s">
-        <v>131</v>
-      </c>
-      <c r="C19" s="7">
-        <v>43343</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B20" s="6" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B21" t="s">
-        <v>130</v>
-      </c>
-      <c r="C21" s="7">
-        <v>43346</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B22" t="s">
-        <v>131</v>
-      </c>
-      <c r="C22" s="7">
-        <v>43357</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B23" s="6" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B24" t="s">
-        <v>130</v>
-      </c>
-      <c r="C24" s="7">
-        <v>43360</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B25" t="s">
-        <v>131</v>
-      </c>
-      <c r="C25" s="7">
-        <v>43371</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B26" s="6" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B27" t="s">
-        <v>130</v>
-      </c>
-      <c r="C27" s="7">
-        <v>43374</v>
-      </c>
-    </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B28" t="s">
-        <v>131</v>
-      </c>
-      <c r="C28" s="7">
-        <v>43378</v>
-      </c>
-    </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B29" s="6" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B30" t="s">
-        <v>130</v>
-      </c>
-      <c r="C30" s="7">
-        <v>43381</v>
-      </c>
-    </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B31" t="s">
-        <v>131</v>
-      </c>
-      <c r="C31" s="7">
-        <v>43388</v>
+        <v>43413</v>
+      </c>
+      <c r="G13" s="7">
+        <v>43416</v>
+      </c>
+      <c r="H13" s="7">
+        <v>43417</v>
+      </c>
+      <c r="I13" s="7">
+        <v>43418</v>
+      </c>
+      <c r="J13" s="7">
+        <v>43419</v>
+      </c>
+      <c r="K13" s="7">
+        <v>43420</v>
+      </c>
+      <c r="L13" s="7">
+        <v>43423</v>
+      </c>
+      <c r="M13" s="7">
+        <v>43424</v>
+      </c>
+      <c r="N13" s="7">
+        <v>43425</v>
+      </c>
+      <c r="O13" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="P13" s="7">
+        <v>43427</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C18" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="D18" s="10">
+        <v>43427</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
+  </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B2" location="timesheets!A1" display="RTS timesheet" xr:uid="{64988F1E-7502-449B-BE66-02320B324CDA}"/>
-    <hyperlink ref="B5" location="timesheets!A1" display="Manual timesheet" xr:uid="{3B494344-70C0-4521-9114-B969DBDD81E0}"/>
-    <hyperlink ref="B8" location="Leaves!A1" display="Leaves" xr:uid="{7C32A115-6F19-475D-9914-14E325EF9E8D}"/>
-    <hyperlink ref="B11" location="'Useraccess management'!A1" display="Useraccess management" xr:uid="{60E8931E-FB4D-4BA3-964A-F199DF369DB2}"/>
-    <hyperlink ref="B14" location="'Employee Requests'!A1" display="Employee Requests" xr:uid="{4FEF1770-53F9-42FA-81D8-499E1077011F}"/>
-    <hyperlink ref="B17" location="Claims!A1" display="Claims" xr:uid="{D8431E31-A7BF-4EC0-9C34-7361D621A4F1}"/>
-    <hyperlink ref="B20" location="Employeemaster!A1" display="Employee master" xr:uid="{487366F4-9AE5-4FE7-974D-AB05AC746A6D}"/>
-    <hyperlink ref="B23" location="'Client Master'!A1" display="Client master" xr:uid="{FB2DEE1B-9F17-4E0C-887A-F47B818F68D7}"/>
-    <hyperlink ref="B26" location="Payslips!A1" display="Payslips" xr:uid="{D08F4662-6C66-4396-8984-0165F9A44500}"/>
-    <hyperlink ref="B29" location="Audittrail!A1" display="Audit trail" xr:uid="{64D941CF-1973-4AFC-8E32-6D4543EC7E55}"/>
-    <hyperlink ref="E11" location="common!A1" display="Common" xr:uid="{3788D207-25BD-4370-B70D-4CADBAECC948}"/>
+    <hyperlink ref="B3" location="timesheets!A1" display="RTS timesheet" xr:uid="{64988F1E-7502-449B-BE66-02320B324CDA}"/>
+    <hyperlink ref="B4" location="timesheets!A1" display="Manual timesheet" xr:uid="{3B494344-70C0-4521-9114-B969DBDD81E0}"/>
+    <hyperlink ref="B7" location="'Useraccess management'!A1" display="Useraccess management" xr:uid="{60E8931E-FB4D-4BA3-964A-F199DF369DB2}"/>
+    <hyperlink ref="B8" location="'Employee Requests'!A1" display="Employee Requests" xr:uid="{4FEF1770-53F9-42FA-81D8-499E1077011F}"/>
+    <hyperlink ref="B9" location="Claims!A1" display="Claims" xr:uid="{D8431E31-A7BF-4EC0-9C34-7361D621A4F1}"/>
+    <hyperlink ref="B10" location="Employeemaster!A1" display="Employee master" xr:uid="{487366F4-9AE5-4FE7-974D-AB05AC746A6D}"/>
+    <hyperlink ref="B11" location="'Client Master'!A1" display="Client master" xr:uid="{FB2DEE1B-9F17-4E0C-887A-F47B818F68D7}"/>
+    <hyperlink ref="B12" location="Payslips!A1" display="Payslips" xr:uid="{D08F4662-6C66-4396-8984-0165F9A44500}"/>
+    <hyperlink ref="B13" location="Audittrail!A1" display="Audit trail" xr:uid="{64D941CF-1973-4AFC-8E32-6D4543EC7E55}"/>
+    <hyperlink ref="B6" location="Leaves!A1" display="Leaves" xr:uid="{7C32A115-6F19-475D-9914-14E325EF9E8D}"/>
+    <hyperlink ref="B5" location="common!A1" display="Common" xr:uid="{20F08127-F9F8-4571-B1F4-732CD25CD076}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3188,7 +3752,9 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -3262,10 +3828,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C6" t="s">
-        <v>107</v>
+        <v>7</v>
       </c>
       <c r="D6" t="s">
         <v>23</v>
@@ -3276,7 +3842,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C7" t="s">
         <v>7</v>
@@ -3524,22 +4090,22 @@
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
-        <v>101</v>
+        <v>159</v>
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
-        <v>105</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -3558,7 +4124,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -3649,7 +4217,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C7" t="s">
         <v>30</v>
@@ -3677,7 +4245,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C9" t="s">
         <v>30</v>
@@ -3752,12 +4320,12 @@
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>111</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -3771,7 +4339,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3807,7 +4375,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="C3" t="s">
         <v>77</v>
@@ -3925,7 +4493,7 @@
         <v>77</v>
       </c>
       <c r="D11" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -3933,12 +4501,12 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>129</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -3951,7 +4519,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -4042,7 +4612,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C7" t="s">
         <v>42</v>
@@ -4070,7 +4640,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C9" t="s">
         <v>42</v>
@@ -4154,12 +4724,12 @@
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>114</v>
+        <v>163</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
-        <v>115</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -4173,7 +4743,9 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -4200,7 +4772,7 @@
     </row>
     <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C2" t="s">
         <v>55</v>
@@ -4228,7 +4800,7 @@
     </row>
     <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C4" t="s">
         <v>55</v>
@@ -4290,7 +4862,7 @@
         <v>55</v>
       </c>
       <c r="D8" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -4312,12 +4884,12 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>119</v>
+        <v>165</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>120</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -4340,7 +4912,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4421,7 +4993,7 @@
     </row>
     <row r="6" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="C6" t="s">
         <v>62</v>
@@ -4449,13 +5021,13 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="C8" t="s">
         <v>62</v>
       </c>
       <c r="D8" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -4463,7 +5035,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="C9" t="s">
         <v>62</v>
@@ -4477,7 +5049,7 @@
     </row>
     <row r="10" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="C10" t="s">
         <v>62</v>
@@ -4491,7 +5063,7 @@
     </row>
     <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="C11" t="s">
         <v>62</v>
@@ -4505,7 +5077,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="C12" t="s">
         <v>62</v>
@@ -4519,17 +5091,17 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>123</v>
+        <v>167</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -4550,9 +5122,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -4643,7 +5213,7 @@
     </row>
     <row r="7" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="C7" t="s">
         <v>69</v>
@@ -4677,7 +5247,7 @@
         <v>69</v>
       </c>
       <c r="D9" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -4685,7 +5255,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="C10" t="s">
         <v>69</v>
@@ -4699,12 +5269,12 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>

--- a/Heliusapp_project_implementation_plan.xlsx
+++ b/Heliusapp_project_implementation_plan.xlsx
@@ -1,51 +1,54 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HELIUS\Documents\projectplan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HELIUS\Documents\GitHub\projectdocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F37BACD8-C57B-405C-A746-3E8F03B0F40B}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38A23EEF-FE0E-436A-A8E4-03FD84C11F3D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10416" firstSheet="5" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10416" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Alltasks" sheetId="1" r:id="rId1"/>
     <sheet name="Total estimate" sheetId="9" r:id="rId2"/>
-    <sheet name="timesheets" sheetId="2" r:id="rId3"/>
-    <sheet name="Leaves" sheetId="3" r:id="rId4"/>
-    <sheet name="Useraccess management" sheetId="6" r:id="rId5"/>
-    <sheet name="Employee Requests" sheetId="4" r:id="rId6"/>
-    <sheet name="Claims" sheetId="5" r:id="rId7"/>
-    <sheet name="Employeemaster" sheetId="8" r:id="rId8"/>
-    <sheet name="Client Master" sheetId="7" r:id="rId9"/>
-    <sheet name="Payslips" sheetId="13" r:id="rId10"/>
-    <sheet name="Audittrail" sheetId="15" r:id="rId11"/>
-    <sheet name="common" sheetId="17" r:id="rId12"/>
-    <sheet name="Risks" sheetId="19" r:id="rId13"/>
+    <sheet name="Phase1-HR-Employeejourney" sheetId="21" r:id="rId3"/>
+    <sheet name="timesheets" sheetId="2" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="20" r:id="rId5"/>
+    <sheet name="Leaves" sheetId="3" r:id="rId6"/>
+    <sheet name="Useraccess management" sheetId="6" r:id="rId7"/>
+    <sheet name="Employee Requests" sheetId="4" r:id="rId8"/>
+    <sheet name="Claims" sheetId="5" r:id="rId9"/>
+    <sheet name="Employeemaster" sheetId="8" r:id="rId10"/>
+    <sheet name="Client Master" sheetId="7" r:id="rId11"/>
+    <sheet name="Payslips" sheetId="13" r:id="rId12"/>
+    <sheet name="Audittrail" sheetId="15" r:id="rId13"/>
+    <sheet name="common" sheetId="17" r:id="rId14"/>
+    <sheet name="Risks" sheetId="19" r:id="rId15"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Alltasks!$A$2:$D$95</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">Audittrail!$B$2:$E$9</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Claims!$B$1:$E$9</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'Client Master'!$B$2:$E$10</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">common!$B$2:$E$5</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Employee Requests'!$B$2:$E$14</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Employeemaster!$A$2:$E$12</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Leaves!$B$2:$E$13</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">Payslips!$B$2:$E$9</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">timesheets!$B$2:$D$23</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Useraccess management'!$B$2:$E$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">Audittrail!$B$2:$E$9</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">Claims!$B$1:$E$9</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'Client Master'!$B$2:$E$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">common!$B$2:$E$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'Employee Requests'!$B$2:$E$14</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">Employeemaster!$A$2:$E$12</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Leaves!$B$2:$E$13</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">Payslips!$B$2:$E$9</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Phase1-HR-Employeejourney'!$A$2:$E$61</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">timesheets!$B$2:$D$23</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Useraccess management'!$B$2:$E$11</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="926" uniqueCount="253">
   <si>
     <t>Task</t>
   </si>
@@ -642,6 +645,182 @@
   </si>
   <si>
     <t>cross team learning might help. But, in a small team, where everybody is busy with their work, is this feasible?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phase I estimate </t>
+  </si>
+  <si>
+    <t>Convert employee to client</t>
+  </si>
+  <si>
+    <t>Exit employee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UI to set resignation date and last date. </t>
+  </si>
+  <si>
+    <t>HR-Employee Journey</t>
+  </si>
+  <si>
+    <t>employee master</t>
+  </si>
+  <si>
+    <t>Creation of employee master UI to capture new employee data</t>
+  </si>
+  <si>
+    <t>UI to search and display existing employee data and also ability to update employee information.</t>
+  </si>
+  <si>
+    <t>onboarding documents</t>
+  </si>
+  <si>
+    <t>REST service to  create new employee in DB</t>
+  </si>
+  <si>
+    <t>REST service to update an existing employee into DB</t>
+  </si>
+  <si>
+    <t>Gathering existing employee data from HR</t>
+  </si>
+  <si>
+    <t>Script for loading existing employee data into DB</t>
+  </si>
+  <si>
+    <t>UI to upload RTS timesheet</t>
+  </si>
+  <si>
+    <t>Timesheets</t>
+  </si>
+  <si>
+    <t>Update in DB the RTS timeheet status of each employee</t>
+  </si>
+  <si>
+    <t>Update in DB the manual timeheet status of each employee</t>
+  </si>
+  <si>
+    <t>UI to update leave record of an employee</t>
+  </si>
+  <si>
+    <t>Capture the new employee data from UI, prepare json and send to backend</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Capture the leave records in JSON format and send to backend </t>
+  </si>
+  <si>
+    <t>REST service to receive leave record json, perform validations, save in DB</t>
+  </si>
+  <si>
+    <t>Deploying employee master feature into AWS</t>
+  </si>
+  <si>
+    <t>Deploying leaves feature into AWS</t>
+  </si>
+  <si>
+    <t>Gathering leaves data for existing employees from HR</t>
+  </si>
+  <si>
+    <t>Script to upload leaves data for existing employees into DB</t>
+  </si>
+  <si>
+    <t>`</t>
+  </si>
+  <si>
+    <t>Gathering claims data for existing employees from HR</t>
+  </si>
+  <si>
+    <t>Script to upload claims data for existing employees into DB</t>
+  </si>
+  <si>
+    <t>UI to update claim record of an employee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Capture the claim record in JSON format and send to backend </t>
+  </si>
+  <si>
+    <t>REST service to receive claim record json, perform validations, save in DB</t>
+  </si>
+  <si>
+    <t>Deploying claims  feature into AWS</t>
+  </si>
+  <si>
+    <t>UI to upload employee appraisal data into DB</t>
+  </si>
+  <si>
+    <t>Appraisal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Capture the appraisal record in JSON format and send to backend </t>
+  </si>
+  <si>
+    <t>REST service to receive appraisal record json and  save in DB</t>
+  </si>
+  <si>
+    <t>Deploying Appraisal  feature into AWS</t>
+  </si>
+  <si>
+    <t>Merit increase</t>
+  </si>
+  <si>
+    <t>UI to upload employee merit increase data into DB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Capture the merit increase record in JSON format and send to backend </t>
+  </si>
+  <si>
+    <t>REST service to receive  merit increase record json and  save in DB</t>
+  </si>
+  <si>
+    <t>Deploying merit increase  feature into AWS</t>
+  </si>
+  <si>
+    <t>UI to capture employee exit checklist</t>
+  </si>
+  <si>
+    <t>Umesh and Vinay</t>
+  </si>
+  <si>
+    <t>Deploying exit employee  feature into AWS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Checklist UI for capturing the onboarding documents and stroring in DB
+</t>
+  </si>
+  <si>
+    <t>DB schema for employee master</t>
+  </si>
+  <si>
+    <t xml:space="preserve">End to end integration
+</t>
+  </si>
+  <si>
+    <t>UI to trigger a job to check  timesheets inbox in email server and receive latest timesheets</t>
+  </si>
+  <si>
+    <t>REST service to capture and perform validations on RTS timesheet and send response back to front dnd</t>
+  </si>
+  <si>
+    <t>Displaying the RTS timesheet validation result to HR and also save result excel</t>
+  </si>
+  <si>
+    <t>REST service to perform validations on manual timesheets</t>
+  </si>
+  <si>
+    <t>REST service job to check  timesheets inbox in email server and receive latest timesheets</t>
+  </si>
+  <si>
+    <t>Extract leaves from RTS timesheet and update in DB</t>
+  </si>
+  <si>
+    <t>Extract leaves from manual timesheet and update in DB</t>
+  </si>
+  <si>
+    <t>REST service to get employee exit documents in  json and  save in DB</t>
+  </si>
+  <si>
+    <t>REST service to  capture exit dates  record json and  save in DB</t>
+  </si>
+  <si>
+    <t>ExitEmployee</t>
   </si>
 </sst>
 </file>
@@ -1148,7 +1327,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1169,10 +1348,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="8"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="8" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="11" fillId="6" borderId="4" xfId="11" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2597,6 +2780,391 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="94.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="4"/>
+      <c r="B1" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B8" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" t="s">
+        <v>112</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B9" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B10" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C11" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B12" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>115</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A2:E12" xr:uid="{236236D0-1C20-4C0C-9AA3-4357AD2C3F52}">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="Entire team"/>
+        <filter val="Umesh"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:E16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="66.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="4"/>
+      <c r="B1" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B5" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B7" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9" t="s">
+        <v>112</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>116</v>
+      </c>
+      <c r="C10" t="s">
+        <v>69</v>
+      </c>
+      <c r="D10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>170</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="B2:E10" xr:uid="{F53ADA23-B3D5-4EF1-8643-06BD920D5A01}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="Entire team"/>
+        <filter val="Tirumala and Rajesh"/>
+        <filter val="Umesh"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1D0AE69-AF37-4697-A2D0-F42A140D28E7}">
   <dimension ref="A1:E15"/>
   <sheetViews>
@@ -2749,7 +3317,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBF98952-EE1F-46E8-8C42-400317131F61}">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:E14"/>
@@ -2911,7 +3479,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E54D23C-9246-4894-908D-A10DE509821D}">
   <dimension ref="A1:E11"/>
   <sheetViews>
@@ -3012,11 +3580,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DB958AD-F379-4576-B3A3-53BB906DC87F}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
@@ -3088,7 +3656,7 @@
       <c r="A5" t="s">
         <v>185</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="14" t="s">
         <v>190</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -3102,7 +3670,7 @@
       <c r="A6" t="s">
         <v>191</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="14" t="s">
         <v>192</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -3119,17 +3687,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A160B2E2-282E-4AB4-AF25-F319217CEA66}">
-  <dimension ref="B1:P18"/>
+  <dimension ref="B1:P34"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:D1"/>
+    <sheetView topLeftCell="B19" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="P30" sqref="P30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="21.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.44140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.33203125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.21875" customWidth="1"/>
     <col min="6" max="6" width="18.44140625" customWidth="1"/>
     <col min="7" max="7" width="14.33203125" customWidth="1"/>
@@ -3148,30 +3716,30 @@
       <c r="B1" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14" t="s">
+      <c r="D1" s="17"/>
+      <c r="E1" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14" t="s">
+      <c r="F1" s="17"/>
+      <c r="G1" s="17" t="s">
         <v>151</v>
       </c>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14" t="s">
+      <c r="H1" s="17"/>
+      <c r="I1" s="17" t="s">
         <v>152</v>
       </c>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14" t="s">
+      <c r="J1" s="17"/>
+      <c r="K1" s="17" t="s">
         <v>153</v>
       </c>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14" t="s">
+      <c r="L1" s="17"/>
+      <c r="M1" s="17" t="s">
         <v>156</v>
       </c>
-      <c r="N1" s="14"/>
+      <c r="N1" s="17"/>
       <c r="O1" s="2" t="s">
         <v>154</v>
       </c>
@@ -3712,7 +4280,7 @@
         <v>43427</v>
       </c>
     </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C18" s="9" t="s">
         <v>155</v>
       </c>
@@ -3720,14 +4288,377 @@
         <v>43427</v>
       </c>
     </row>
+    <row r="19" spans="2:16" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C19" s="9"/>
+      <c r="D19" s="10"/>
+    </row>
+    <row r="20" spans="2:16" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C20" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="D20" s="10"/>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B21" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="J21" s="17"/>
+      <c r="K21" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="L21" s="17"/>
+      <c r="M21" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="N21" s="17"/>
+      <c r="O21" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="P21" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="C22" s="13">
+        <v>43292</v>
+      </c>
+      <c r="D22" s="13">
+        <v>43306</v>
+      </c>
+      <c r="E22" s="13">
+        <v>43307</v>
+      </c>
+      <c r="F22" s="13">
+        <v>43676</v>
+      </c>
+      <c r="G22" s="13">
+        <v>43312</v>
+      </c>
+      <c r="H22" s="13">
+        <v>43313</v>
+      </c>
+      <c r="I22" s="13">
+        <v>43314</v>
+      </c>
+      <c r="J22" s="13">
+        <v>43315</v>
+      </c>
+      <c r="K22" s="13">
+        <v>43318</v>
+      </c>
+      <c r="L22" s="13">
+        <v>43319</v>
+      </c>
+      <c r="M22" s="13">
+        <v>43320</v>
+      </c>
+      <c r="N22" s="13">
+        <v>43382</v>
+      </c>
+      <c r="O22" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="P22" s="13">
+        <v>43322</v>
+      </c>
+    </row>
+    <row r="23" spans="2:16" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="13">
+        <v>43307</v>
+      </c>
+      <c r="D23" s="13">
+        <v>43315</v>
+      </c>
+      <c r="E23" s="13">
+        <v>43318</v>
+      </c>
+      <c r="F23" s="13">
+        <v>43319</v>
+      </c>
+      <c r="G23" s="13">
+        <v>43320</v>
+      </c>
+      <c r="H23" s="13">
+        <v>43322</v>
+      </c>
+      <c r="I23" s="13">
+        <v>43325</v>
+      </c>
+      <c r="J23" s="13">
+        <v>43326</v>
+      </c>
+      <c r="K23" s="13">
+        <v>43328</v>
+      </c>
+      <c r="L23" s="13">
+        <v>43329</v>
+      </c>
+      <c r="M23" s="13">
+        <v>43332</v>
+      </c>
+      <c r="N23" s="13">
+        <v>43333</v>
+      </c>
+      <c r="O23" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="P23" s="13">
+        <v>43336</v>
+      </c>
+    </row>
+    <row r="24" spans="2:16" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="C24" s="13">
+        <v>43320</v>
+      </c>
+      <c r="D24" s="13">
+        <v>43333</v>
+      </c>
+      <c r="E24" s="13">
+        <v>43334</v>
+      </c>
+      <c r="F24" s="13">
+        <v>43335</v>
+      </c>
+      <c r="G24" s="13">
+        <v>43336</v>
+      </c>
+      <c r="H24" s="13">
+        <v>43339</v>
+      </c>
+      <c r="I24" s="13">
+        <v>43340</v>
+      </c>
+      <c r="J24" s="13">
+        <v>43341</v>
+      </c>
+      <c r="K24" s="13">
+        <v>43342</v>
+      </c>
+      <c r="L24" s="13">
+        <v>43343</v>
+      </c>
+      <c r="M24" s="13">
+        <v>43344</v>
+      </c>
+      <c r="N24" s="13">
+        <v>43345</v>
+      </c>
+      <c r="O24" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="P24" s="13">
+        <v>43350</v>
+      </c>
+    </row>
+    <row r="25" spans="2:16" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" s="13">
+        <v>43334</v>
+      </c>
+      <c r="D25" s="13">
+        <v>43349</v>
+      </c>
+      <c r="E25" s="13">
+        <v>43333</v>
+      </c>
+      <c r="F25" s="13">
+        <v>43334</v>
+      </c>
+      <c r="G25" s="13">
+        <v>43335</v>
+      </c>
+      <c r="H25" s="13">
+        <v>43336</v>
+      </c>
+      <c r="I25" s="13">
+        <v>43339</v>
+      </c>
+      <c r="J25" s="13">
+        <v>43340</v>
+      </c>
+      <c r="K25" s="13">
+        <v>43341</v>
+      </c>
+      <c r="L25" s="13">
+        <v>43342</v>
+      </c>
+      <c r="M25" s="13">
+        <v>43343</v>
+      </c>
+      <c r="N25" s="13">
+        <v>43343</v>
+      </c>
+      <c r="O25" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="P25" s="13">
+        <v>43364</v>
+      </c>
+    </row>
+    <row r="26" spans="2:16" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" s="13">
+        <v>43346</v>
+      </c>
+      <c r="D26" s="13">
+        <v>43354</v>
+      </c>
+      <c r="E26" s="13">
+        <v>43355</v>
+      </c>
+      <c r="F26" s="13">
+        <v>43357</v>
+      </c>
+      <c r="G26" s="13">
+        <v>43358</v>
+      </c>
+      <c r="H26" s="13">
+        <v>43359</v>
+      </c>
+      <c r="I26" s="13">
+        <v>43362</v>
+      </c>
+      <c r="J26" s="13">
+        <v>43363</v>
+      </c>
+      <c r="K26" s="13">
+        <v>43364</v>
+      </c>
+      <c r="L26" s="13">
+        <v>43368</v>
+      </c>
+      <c r="M26" s="13">
+        <v>43369</v>
+      </c>
+      <c r="N26" s="13">
+        <v>43370</v>
+      </c>
+      <c r="O26" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="P26" s="13">
+        <v>43378</v>
+      </c>
+    </row>
+    <row r="27" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B27" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="C27" s="7">
+        <v>43355</v>
+      </c>
+      <c r="D27" s="8">
+        <v>43364</v>
+      </c>
+      <c r="P27" s="13">
+        <v>43378</v>
+      </c>
+    </row>
+    <row r="28" spans="2:16" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="C28" s="13">
+        <v>43297</v>
+      </c>
+      <c r="D28" s="13">
+        <v>43308</v>
+      </c>
+      <c r="E28" s="13">
+        <v>43318</v>
+      </c>
+      <c r="F28" s="13">
+        <v>43319</v>
+      </c>
+      <c r="G28" s="13">
+        <v>43320</v>
+      </c>
+      <c r="H28" s="13">
+        <v>43321</v>
+      </c>
+      <c r="I28" s="13">
+        <v>43322</v>
+      </c>
+      <c r="J28" s="13">
+        <v>43325</v>
+      </c>
+      <c r="K28" s="13">
+        <v>43326</v>
+      </c>
+      <c r="L28" s="13">
+        <v>43328</v>
+      </c>
+      <c r="M28" s="13">
+        <v>43329</v>
+      </c>
+      <c r="N28" s="13">
+        <v>43332</v>
+      </c>
+      <c r="O28" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="P28" s="8">
+        <v>43336</v>
+      </c>
+    </row>
+    <row r="29" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B29" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="P29" s="8">
+        <v>43378</v>
+      </c>
+    </row>
+    <row r="34" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C34" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="D34" s="10">
+        <v>43378</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="12">
     <mergeCell ref="M1:N1"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="I1:J1"/>
     <mergeCell ref="K1:L1"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="K21:L21"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B3" location="timesheets!A1" display="RTS timesheet" xr:uid="{64988F1E-7502-449B-BE66-02320B324CDA}"/>
@@ -3741,6 +4672,14 @@
     <hyperlink ref="B13" location="Audittrail!A1" display="Audit trail" xr:uid="{64D941CF-1973-4AFC-8E32-6D4543EC7E55}"/>
     <hyperlink ref="B6" location="Leaves!A1" display="Leaves" xr:uid="{7C32A115-6F19-475D-9914-14E325EF9E8D}"/>
     <hyperlink ref="B5" location="common!A1" display="Common" xr:uid="{20F08127-F9F8-4571-B1F4-732CD25CD076}"/>
+    <hyperlink ref="B23" location="timesheets!A1" display="RTS timesheet" xr:uid="{6CE570E7-9C16-4639-95E6-AC32AE8171BD}"/>
+    <hyperlink ref="B24" location="timesheets!A1" display="Manual timesheet" xr:uid="{55EC80A8-1F45-4CDC-B913-4054BC3BFEF4}"/>
+    <hyperlink ref="B25" location="Leaves!A1" display="Leaves" xr:uid="{D827A1C5-94CB-495B-9BD3-6F7DC5020599}"/>
+    <hyperlink ref="B28" location="'Useraccess management'!A1" display="Useraccess management" xr:uid="{9D624308-6F0D-49A7-B33E-6F5C743C6B3C}"/>
+    <hyperlink ref="B26" location="Claims!A1" display="Claims" xr:uid="{A4989A8F-CFC6-47AE-B040-12BC00661236}"/>
+    <hyperlink ref="B22" location="Employeemaster!A1" display="Employee master" xr:uid="{81D930A9-D162-44FD-9AFD-0C36E349123A}"/>
+    <hyperlink ref="B27" location="'Phase1-HR-Employeejourney'!A1" display="ExitEmployee" xr:uid="{EFD3782A-BED1-4B83-8E00-6E521B8539B9}"/>
+    <hyperlink ref="B29" location="'Phase1-HR-Employeejourney'!A1" display="onboarding documents" xr:uid="{033DDE7F-6783-4B6B-BBAC-0C0A1B22AD4F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3748,12 +4687,887 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D9C5F05-799C-4916-A93E-C8F23FFA12FF}">
+  <dimension ref="A1:F62"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="81.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="47.5546875" customWidth="1"/>
+    <col min="4" max="4" width="36.33203125" customWidth="1"/>
+    <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="11"/>
+      <c r="B1" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="F2" s="11"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B3" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B5" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="11" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B6" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" s="11" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B10" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>238</v>
+      </c>
+      <c r="E10" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="14">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" s="11" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B15" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B17" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E23" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E24" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E25" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E26" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E27" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E28" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" s="11" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B29" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D29" s="14" t="s">
+        <v>238</v>
+      </c>
+      <c r="E29" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E31" s="14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E33" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E34" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E35" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" s="11" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A36" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D36" s="14" t="s">
+        <v>238</v>
+      </c>
+      <c r="E36" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E37" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="16" t="s">
+        <v>227</v>
+      </c>
+      <c r="C38" s="16" t="s">
+        <v>228</v>
+      </c>
+      <c r="D38" s="15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="C39" s="16" t="s">
+        <v>228</v>
+      </c>
+      <c r="D39" s="15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="C40" s="16" t="s">
+        <v>228</v>
+      </c>
+      <c r="D40" s="15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="C41" s="16" t="s">
+        <v>228</v>
+      </c>
+      <c r="D41" s="15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="C42" s="16" t="s">
+        <v>232</v>
+      </c>
+      <c r="D42" s="15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="C43" s="16" t="s">
+        <v>232</v>
+      </c>
+      <c r="D43" s="15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="C44" s="16" t="s">
+        <v>232</v>
+      </c>
+      <c r="D44" s="15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="16" t="s">
+        <v>236</v>
+      </c>
+      <c r="C45" s="16" t="s">
+        <v>232</v>
+      </c>
+      <c r="D45" s="15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>220</v>
+      </c>
+      <c r="B46" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D46" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="E46" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B47" t="s">
+        <v>198</v>
+      </c>
+      <c r="C47" t="s">
+        <v>197</v>
+      </c>
+      <c r="D47" t="s">
+        <v>5</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D48" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E48" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B49" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D49" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E49" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D50" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E50" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" s="11" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A51" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D51" s="14" t="s">
+        <v>238</v>
+      </c>
+      <c r="E51" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B52" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D52" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E52" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" s="11"/>
+      <c r="B53" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="C53" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D53" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E53" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" s="11"/>
+      <c r="B54" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="C54" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D54" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E54" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" s="11"/>
+      <c r="B55" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C55" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D55" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="E55" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" s="11"/>
+      <c r="B56" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C56" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D56" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="E56" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" s="11"/>
+      <c r="B57" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C57" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D57" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E57" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" s="11"/>
+      <c r="B58" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C58" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D58" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="E58" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" s="11"/>
+      <c r="B59" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="C59" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D59" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="E59" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" s="11"/>
+      <c r="B60" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="C60" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D60" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="E60" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" s="11"/>
+      <c r="B61" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C61" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D61" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="E61" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" s="11"/>
+      <c r="B62" s="11"/>
+      <c r="C62" s="11"/>
+      <c r="D62" s="11"/>
+      <c r="E62" s="11"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A2:E61" xr:uid="{F9883F0A-36FE-4DDB-B2EE-60B5C16B414F}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4120,7 +5934,19 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{222E96B0-830E-4F0D-AA14-3C5129616D3F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E19"/>
   <sheetViews>
@@ -4334,12 +6160,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="A3" sqref="A3:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4515,7 +6341,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:E21"/>
   <sheetViews>
@@ -4738,7 +6564,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:E16"/>
@@ -4904,389 +6730,4 @@
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:E17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="94.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="4"/>
-      <c r="B1" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B3" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>63</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C6" t="s">
-        <v>62</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C7" t="s">
-        <v>62</v>
-      </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B8" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C8" t="s">
-        <v>62</v>
-      </c>
-      <c r="D8" t="s">
-        <v>112</v>
-      </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B9" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="C9" t="s">
-        <v>62</v>
-      </c>
-      <c r="D9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B10" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="C10" t="s">
-        <v>62</v>
-      </c>
-      <c r="D10" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C11" t="s">
-        <v>62</v>
-      </c>
-      <c r="D11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B12" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C12" t="s">
-        <v>62</v>
-      </c>
-      <c r="D12" t="s">
-        <v>5</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B15" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B17" t="s">
-        <v>115</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A2:E12" xr:uid="{236236D0-1C20-4C0C-9AA3-4357AD2C3F52}">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="Entire team"/>
-        <filter val="Umesh"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:E16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="66.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="4"/>
-      <c r="B1" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C4" t="s">
-        <v>69</v>
-      </c>
-      <c r="D4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B5" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C5" t="s">
-        <v>69</v>
-      </c>
-      <c r="D5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B7" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C7" t="s">
-        <v>69</v>
-      </c>
-      <c r="D7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
-        <v>74</v>
-      </c>
-      <c r="C8" t="s">
-        <v>69</v>
-      </c>
-      <c r="D8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>69</v>
-      </c>
-      <c r="D9" t="s">
-        <v>112</v>
-      </c>
-      <c r="E9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
-        <v>116</v>
-      </c>
-      <c r="C10" t="s">
-        <v>69</v>
-      </c>
-      <c r="D10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B15" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B16" t="s">
-        <v>170</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="B2:E10" xr:uid="{F53ADA23-B3D5-4EF1-8643-06BD920D5A01}">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="Entire team"/>
-        <filter val="Tirumala and Rajesh"/>
-        <filter val="Umesh"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Heliusapp_project_implementation_plan.xlsx
+++ b/Heliusapp_project_implementation_plan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HELIUS\Documents\GitHub\projectdocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38A23EEF-FE0E-436A-A8E4-03FD84C11F3D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{675E7E4E-4309-4686-A14F-2E4151692DB0}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10416" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10416" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Alltasks" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">Employeemaster!$A$2:$E$12</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Leaves!$B$2:$E$13</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">Payslips!$B$2:$E$9</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Phase1-HR-Employeejourney'!$A$2:$E$61</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Phase1-HR-Employeejourney'!$A$2:$E$71</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">timesheets!$B$2:$D$23</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Useraccess management'!$B$2:$E$11</definedName>
   </definedNames>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="926" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="981" uniqueCount="276">
   <si>
     <t>Task</t>
   </si>
@@ -821,14 +821,114 @@
   </si>
   <si>
     <t>ExitEmployee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Feature </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Outcome </t>
+  </si>
+  <si>
+    <t>Delivery date</t>
+  </si>
+  <si>
+    <t>Clientmaster</t>
+  </si>
+  <si>
+    <t>Creation of  client master UI to enter client details</t>
+  </si>
+  <si>
+    <t>Capturing the client details and send to backend in JSON form</t>
+  </si>
+  <si>
+    <t>REST service to receive the client json data and save it in DB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Clientmaster
+</t>
+  </si>
+  <si>
+    <t>UI for searching, displaying and updating  the client details</t>
+  </si>
+  <si>
+    <t>REST service to receive the updated client json data and save it in DB</t>
+  </si>
+  <si>
+    <t>DB schema for client master</t>
+  </si>
+  <si>
+    <t>Gathering existing clients details from HR</t>
+  </si>
+  <si>
+    <t>Script for loading existing client data into DB</t>
+  </si>
+  <si>
+    <t>ApplyMeritincrease</t>
+  </si>
+  <si>
+    <t>1. HR can enter and save the merit increase details in the system after 
+an employee appraisal like merit increase %, new CTC, effective from 
+date etc..</t>
+  </si>
+  <si>
+    <t>1.Entry of new offer into the system
+2.Creation of employee record after employee accepts offer. If employee rejects offer, can make  the offer inactive in the system
+3. Ability to enter  erms and conditions, employee personal details, workpermit details, assignment details, leave details, salary details
+4. Migrate the existing employees data will be into the system and be vailable for updation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Ability to upload required employee specific onboarding documents. 
+ </t>
+  </si>
+  <si>
+    <t>1. Create employee checklist 
+2. Abiity to monitor the exit process using exit checklist. 
+3 System handles special scenario of employee
+ conversion to client</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Adding new client details into system
+2. Updating the existing client details
+3. Exisitng client data will be uploaded and be  available for updation
+</t>
+  </si>
+  <si>
+    <t>1. Process HR uploaded RTS timesheet for
+ validation errors
+2. downloads the correct and wrong clockers excels after processing the timesheet 
+3. send email notification to employee on timesheet status
+3. Save the RTS timesheet and each employee timesheet status in the system
+4. HR will be able to see in HR timesheet dashboard the timesheet statistics related to RTS timesheet report</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. downloads latest timesheets from timesheets@helius-tech.com when triggered by HR
+2. saves the timesheet in the system. 
+3. Parses the timesheet for any errors. Updates the timesheet status in the system
+4. HR will be able to see in HR timesheet dashboard the timesheet statistics related to manual timesheets
+5. upload the manual timesheet template
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. HR will be able to enter new claims and change the status(submitted, incomplete, partially reimbursed, completely reimbursed etc..) as the claim 
+goes through its processing. 
+2. All the active  employee claims data in the current year will be gathered and uploaded into system one week before system goes live
+</t>
+  </si>
+  <si>
+    <t>1. Scans the leaves from both RTS timesheet and manual timesheet for
+ leaves availed. Updates the system with leave date of the employee
+2. Provides the ability to enter employee specific leave data manually by HR in case of special situations
+3.  leave elibility and utilization  data of the employees for the current year will be gathered and uploaded into system one week before feature goes live</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-14009]dd/mm/yy;@"/>
+    <numFmt numFmtId="165" formatCode="[$-14009]d/m/yy;@"/>
   </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
@@ -1327,7 +1427,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1353,6 +1453,10 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="8" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="11" fillId="6" borderId="4" xfId="11" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3687,17 +3791,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A160B2E2-282E-4AB4-AF25-F319217CEA66}">
-  <dimension ref="B1:P34"/>
+  <dimension ref="B1:P49"/>
   <sheetViews>
-    <sheetView topLeftCell="B19" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="P30" sqref="P30"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="30.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.33203125" style="7" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="66.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.21875" customWidth="1"/>
     <col min="6" max="6" width="18.44140625" customWidth="1"/>
     <col min="7" max="7" width="14.33203125" customWidth="1"/>
@@ -3716,30 +3820,30 @@
       <c r="B1" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="19" t="s">
         <v>148</v>
       </c>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17" t="s">
+      <c r="D1" s="19"/>
+      <c r="E1" s="19" t="s">
         <v>150</v>
       </c>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17" t="s">
+      <c r="F1" s="19"/>
+      <c r="G1" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17" t="s">
+      <c r="H1" s="19"/>
+      <c r="I1" s="19" t="s">
         <v>152</v>
       </c>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17" t="s">
+      <c r="J1" s="19"/>
+      <c r="K1" s="19" t="s">
         <v>153</v>
       </c>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17" t="s">
+      <c r="L1" s="19"/>
+      <c r="M1" s="19" t="s">
         <v>156</v>
       </c>
-      <c r="N1" s="17"/>
+      <c r="N1" s="19"/>
       <c r="O1" s="2" t="s">
         <v>154</v>
       </c>
@@ -4302,30 +4406,30 @@
       <c r="B21" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="C21" s="17" t="s">
+      <c r="C21" s="19" t="s">
         <v>148</v>
       </c>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17" t="s">
+      <c r="D21" s="19"/>
+      <c r="E21" s="19" t="s">
         <v>150</v>
       </c>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17" t="s">
+      <c r="F21" s="19"/>
+      <c r="G21" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="H21" s="17"/>
-      <c r="I21" s="17" t="s">
+      <c r="H21" s="19"/>
+      <c r="I21" s="19" t="s">
         <v>152</v>
       </c>
-      <c r="J21" s="17"/>
-      <c r="K21" s="17" t="s">
+      <c r="J21" s="19"/>
+      <c r="K21" s="19" t="s">
         <v>153</v>
       </c>
-      <c r="L21" s="17"/>
-      <c r="M21" s="17" t="s">
+      <c r="L21" s="19"/>
+      <c r="M21" s="19" t="s">
         <v>156</v>
       </c>
-      <c r="N21" s="17"/>
+      <c r="N21" s="19"/>
       <c r="O21" s="2" t="s">
         <v>154</v>
       </c>
@@ -4376,13 +4480,13 @@
       <c r="O22" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="P22" s="13">
+      <c r="P22" s="18">
         <v>43322</v>
       </c>
     </row>
-    <row r="23" spans="2:16" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
-        <v>9</v>
+        <v>203</v>
       </c>
       <c r="C23" s="13">
         <v>43307</v>
@@ -4400,249 +4504,494 @@
         <v>43320</v>
       </c>
       <c r="H23" s="13">
+        <v>43321</v>
+      </c>
+      <c r="I23" s="13">
         <v>43322</v>
       </c>
-      <c r="I23" s="13">
+      <c r="J23" s="13">
         <v>43325</v>
       </c>
-      <c r="J23" s="13">
+      <c r="K23" s="13">
         <v>43326</v>
       </c>
-      <c r="K23" s="13">
+      <c r="L23" s="13">
+        <v>43326</v>
+      </c>
+      <c r="M23" s="13">
         <v>43328</v>
       </c>
-      <c r="L23" s="13">
+      <c r="N23" s="13">
         <v>43329</v>
-      </c>
-      <c r="M23" s="13">
-        <v>43332</v>
-      </c>
-      <c r="N23" s="13">
-        <v>43333</v>
       </c>
       <c r="O23" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="P23" s="13">
+      <c r="P23" s="18">
+        <v>43329</v>
+      </c>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B24" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="C24" s="13">
+        <v>43318</v>
+      </c>
+      <c r="D24" s="13">
+        <v>43322</v>
+      </c>
+      <c r="E24" s="13">
+        <v>43332</v>
+      </c>
+      <c r="F24" s="13">
+        <v>43333</v>
+      </c>
+      <c r="G24" s="13">
+        <v>43334</v>
+      </c>
+      <c r="H24" s="13">
+        <v>43335</v>
+      </c>
+      <c r="I24" s="13">
         <v>43336</v>
       </c>
-    </row>
-    <row r="24" spans="2:16" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="C24" s="13">
-        <v>43320</v>
-      </c>
-      <c r="D24" s="13">
-        <v>43333</v>
-      </c>
-      <c r="E24" s="13">
-        <v>43334</v>
-      </c>
-      <c r="F24" s="13">
-        <v>43335</v>
-      </c>
-      <c r="G24" s="13">
-        <v>43336</v>
-      </c>
-      <c r="H24" s="13">
+      <c r="J24" s="13">
         <v>43339</v>
       </c>
-      <c r="I24" s="13">
+      <c r="K24" s="13">
         <v>43340</v>
       </c>
-      <c r="J24" s="13">
+      <c r="L24" s="13">
         <v>43341</v>
       </c>
-      <c r="K24" s="13">
+      <c r="M24" s="13">
         <v>43342</v>
       </c>
-      <c r="L24" s="13">
+      <c r="N24" s="13">
         <v>43343</v>
-      </c>
-      <c r="M24" s="13">
-        <v>43344</v>
-      </c>
-      <c r="N24" s="13">
-        <v>43345</v>
       </c>
       <c r="O24" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="P24" s="13">
-        <v>43350</v>
+      <c r="P24" s="18">
+        <v>43343</v>
       </c>
     </row>
     <row r="25" spans="2:16" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B25" s="12" t="s">
-        <v>30</v>
+        <v>256</v>
       </c>
       <c r="C25" s="13">
-        <v>43334</v>
+        <v>43292</v>
       </c>
       <c r="D25" s="13">
-        <v>43349</v>
+        <v>43308</v>
       </c>
       <c r="E25" s="13">
-        <v>43333</v>
+        <v>43312</v>
       </c>
       <c r="F25" s="13">
-        <v>43334</v>
+        <v>43314</v>
       </c>
       <c r="G25" s="13">
-        <v>43335</v>
+        <v>43315</v>
       </c>
       <c r="H25" s="13">
-        <v>43336</v>
+        <v>43318</v>
       </c>
       <c r="I25" s="13">
-        <v>43339</v>
+        <v>43319</v>
       </c>
       <c r="J25" s="13">
-        <v>43340</v>
+        <v>43321</v>
       </c>
       <c r="K25" s="13">
-        <v>43341</v>
+        <v>43322</v>
       </c>
       <c r="L25" s="13">
-        <v>43342</v>
+        <v>43325</v>
       </c>
       <c r="M25" s="13">
-        <v>43343</v>
+        <v>43326</v>
       </c>
       <c r="N25" s="13">
-        <v>43343</v>
+        <v>43329</v>
       </c>
       <c r="O25" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="P25" s="13">
-        <v>43364</v>
+      <c r="P25" s="18">
+        <v>43336</v>
       </c>
     </row>
     <row r="26" spans="2:16" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B26" s="12" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="C26" s="13">
+        <v>43325</v>
+      </c>
+      <c r="D26" s="13">
+        <v>43332</v>
+      </c>
+      <c r="E26" s="13">
+        <v>43333</v>
+      </c>
+      <c r="F26" s="13">
+        <v>43334</v>
+      </c>
+      <c r="G26" s="13">
+        <v>43335</v>
+      </c>
+      <c r="H26" s="13">
+        <v>43336</v>
+      </c>
+      <c r="I26" s="13">
+        <v>43339</v>
+      </c>
+      <c r="J26" s="13">
+        <v>43340</v>
+      </c>
+      <c r="K26" s="13">
+        <v>43341</v>
+      </c>
+      <c r="L26" s="13">
+        <v>43342</v>
+      </c>
+      <c r="M26" s="13">
         <v>43346</v>
       </c>
-      <c r="D26" s="13">
-        <v>43354</v>
-      </c>
-      <c r="E26" s="13">
-        <v>43355</v>
-      </c>
-      <c r="F26" s="13">
-        <v>43357</v>
-      </c>
-      <c r="G26" s="13">
-        <v>43358</v>
-      </c>
-      <c r="H26" s="13">
-        <v>43359</v>
-      </c>
-      <c r="I26" s="13">
-        <v>43362</v>
-      </c>
-      <c r="J26" s="13">
-        <v>43363</v>
-      </c>
-      <c r="K26" s="13">
-        <v>43364</v>
-      </c>
-      <c r="L26" s="13">
-        <v>43368</v>
-      </c>
-      <c r="M26" s="13">
-        <v>43369</v>
-      </c>
       <c r="N26" s="13">
-        <v>43370</v>
+        <v>43347</v>
       </c>
       <c r="O26" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="P26" s="13">
-        <v>43378</v>
-      </c>
-    </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="P26" s="18">
+        <v>43357</v>
+      </c>
+    </row>
+    <row r="27" spans="2:16" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B27" s="12" t="s">
-        <v>252</v>
-      </c>
-      <c r="C27" s="7">
-        <v>43355</v>
-      </c>
-      <c r="D27" s="8">
-        <v>43364</v>
-      </c>
-      <c r="P27" s="13">
-        <v>43378</v>
+        <v>101</v>
+      </c>
+      <c r="C27" s="13">
+        <v>43333</v>
+      </c>
+      <c r="D27" s="13">
+        <v>43341</v>
+      </c>
+      <c r="E27" s="13">
+        <v>43342</v>
+      </c>
+      <c r="F27" s="13">
+        <v>43343</v>
+      </c>
+      <c r="G27" s="13">
+        <v>43344</v>
+      </c>
+      <c r="H27" s="13">
+        <v>43345</v>
+      </c>
+      <c r="I27" s="13">
+        <v>43346</v>
+      </c>
+      <c r="J27" s="13">
+        <v>43347</v>
+      </c>
+      <c r="K27" s="13">
+        <v>43348</v>
+      </c>
+      <c r="L27" s="13">
+        <v>43351</v>
+      </c>
+      <c r="M27" s="13">
+        <v>43352</v>
+      </c>
+      <c r="N27" s="13">
+        <v>43353</v>
+      </c>
+      <c r="O27" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="P27" s="18">
+        <v>43357</v>
       </c>
     </row>
     <row r="28" spans="2:16" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B28" s="12" t="s">
-        <v>121</v>
+        <v>30</v>
       </c>
       <c r="C28" s="13">
-        <v>43297</v>
+        <v>43342</v>
       </c>
       <c r="D28" s="13">
-        <v>43308</v>
+        <v>43357</v>
       </c>
       <c r="E28" s="13">
-        <v>43318</v>
+        <v>43360</v>
       </c>
       <c r="F28" s="13">
-        <v>43319</v>
+        <v>43361</v>
       </c>
       <c r="G28" s="13">
-        <v>43320</v>
+        <v>43362</v>
       </c>
       <c r="H28" s="13">
-        <v>43321</v>
+        <v>43363</v>
       </c>
       <c r="I28" s="13">
-        <v>43322</v>
+        <v>43367</v>
       </c>
       <c r="J28" s="13">
-        <v>43325</v>
+        <v>43368</v>
       </c>
       <c r="K28" s="13">
-        <v>43326</v>
+        <v>43369</v>
       </c>
       <c r="L28" s="13">
-        <v>43328</v>
+        <v>43370</v>
       </c>
       <c r="M28" s="13">
-        <v>43329</v>
+        <v>43371</v>
       </c>
       <c r="N28" s="13">
-        <v>43332</v>
+        <v>43374</v>
       </c>
       <c r="O28" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="P28" s="8">
+      <c r="P28" s="18">
+        <v>43374</v>
+      </c>
+    </row>
+    <row r="29" spans="2:16" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29" s="13">
+        <v>43342</v>
+      </c>
+      <c r="D29" s="13">
+        <v>43357</v>
+      </c>
+      <c r="E29" s="13">
+        <v>43360</v>
+      </c>
+      <c r="F29" s="13">
+        <v>43361</v>
+      </c>
+      <c r="G29" s="13">
+        <v>43362</v>
+      </c>
+      <c r="H29" s="13">
+        <v>43363</v>
+      </c>
+      <c r="I29" s="13">
+        <v>43367</v>
+      </c>
+      <c r="J29" s="13">
+        <v>43368</v>
+      </c>
+      <c r="K29" s="13">
+        <v>43369</v>
+      </c>
+      <c r="L29" s="13">
+        <v>43370</v>
+      </c>
+      <c r="M29" s="13">
+        <v>43371</v>
+      </c>
+      <c r="N29" s="13">
+        <v>43374</v>
+      </c>
+      <c r="O29" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="P29" s="18">
+        <v>43378</v>
+      </c>
+    </row>
+    <row r="30" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B30" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="C30" s="18">
+        <v>43360</v>
+      </c>
+      <c r="D30" s="18">
+        <v>43369</v>
+      </c>
+      <c r="E30" s="18">
+        <v>43370</v>
+      </c>
+      <c r="F30" s="18">
+        <v>43371</v>
+      </c>
+      <c r="G30" s="18">
+        <v>43374</v>
+      </c>
+      <c r="H30" s="18">
+        <v>43376</v>
+      </c>
+      <c r="I30" s="18">
+        <v>43377</v>
+      </c>
+      <c r="J30" s="18">
+        <v>43378</v>
+      </c>
+      <c r="K30" s="18">
+        <v>43381</v>
+      </c>
+      <c r="L30" s="18">
+        <v>43382</v>
+      </c>
+      <c r="M30" s="18">
+        <v>43383</v>
+      </c>
+      <c r="N30" s="18">
+        <v>43384</v>
+      </c>
+      <c r="O30" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="P30" s="18">
+        <v>43385</v>
+      </c>
+    </row>
+    <row r="31" spans="2:16" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="12"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="13"/>
+      <c r="K31" s="13"/>
+      <c r="L31" s="13"/>
+      <c r="M31" s="13"/>
+      <c r="N31" s="13"/>
+      <c r="P31" s="8"/>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C37" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="D37" s="10">
+        <v>43378</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="B41" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="C41" s="17" t="s">
+        <v>268</v>
+      </c>
+      <c r="D41" s="18">
+        <v>43322</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B42" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="C42" s="17" t="s">
+        <v>269</v>
+      </c>
+      <c r="D42" s="18">
+        <v>43329</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B43" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="C43" s="17" t="s">
+        <v>270</v>
+      </c>
+      <c r="D43" s="18">
+        <v>43343</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B44" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="C44" s="17" t="s">
+        <v>271</v>
+      </c>
+      <c r="D44" s="18">
         <v>43336</v>
       </c>
     </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B29" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="P29" s="8">
+    <row r="45" spans="2:4" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="B45" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C45" s="17" t="s">
+        <v>272</v>
+      </c>
+      <c r="D45" s="8">
+        <v>43357</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" ht="144" x14ac:dyDescent="0.3">
+      <c r="B46" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="C46" s="17" t="s">
+        <v>273</v>
+      </c>
+      <c r="D46" s="8">
+        <v>43357</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="B47" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C47" s="17" t="s">
+        <v>275</v>
+      </c>
+      <c r="D47" s="8">
+        <v>43374</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="B48" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C48" s="17" t="s">
+        <v>274</v>
+      </c>
+      <c r="D48" s="8">
         <v>43378</v>
       </c>
     </row>
-    <row r="34" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C34" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="D34" s="10">
-        <v>43378</v>
+    <row r="49" spans="2:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B49" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="C49" s="17" t="s">
+        <v>267</v>
+      </c>
+      <c r="D49" s="8">
+        <v>43385</v>
       </c>
     </row>
   </sheetData>
@@ -4672,14 +5021,23 @@
     <hyperlink ref="B13" location="Audittrail!A1" display="Audit trail" xr:uid="{64D941CF-1973-4AFC-8E32-6D4543EC7E55}"/>
     <hyperlink ref="B6" location="Leaves!A1" display="Leaves" xr:uid="{7C32A115-6F19-475D-9914-14E325EF9E8D}"/>
     <hyperlink ref="B5" location="common!A1" display="Common" xr:uid="{20F08127-F9F8-4571-B1F4-732CD25CD076}"/>
-    <hyperlink ref="B23" location="timesheets!A1" display="RTS timesheet" xr:uid="{6CE570E7-9C16-4639-95E6-AC32AE8171BD}"/>
-    <hyperlink ref="B24" location="timesheets!A1" display="Manual timesheet" xr:uid="{55EC80A8-1F45-4CDC-B913-4054BC3BFEF4}"/>
-    <hyperlink ref="B25" location="Leaves!A1" display="Leaves" xr:uid="{D827A1C5-94CB-495B-9BD3-6F7DC5020599}"/>
-    <hyperlink ref="B28" location="'Useraccess management'!A1" display="Useraccess management" xr:uid="{9D624308-6F0D-49A7-B33E-6F5C743C6B3C}"/>
-    <hyperlink ref="B26" location="Claims!A1" display="Claims" xr:uid="{A4989A8F-CFC6-47AE-B040-12BC00661236}"/>
+    <hyperlink ref="B26" location="timesheets!A1" display="RTS timesheet" xr:uid="{6CE570E7-9C16-4639-95E6-AC32AE8171BD}"/>
+    <hyperlink ref="B27" location="timesheets!A1" display="Manual timesheet" xr:uid="{55EC80A8-1F45-4CDC-B913-4054BC3BFEF4}"/>
+    <hyperlink ref="B28" location="Leaves!A1" display="Leaves" xr:uid="{D827A1C5-94CB-495B-9BD3-6F7DC5020599}"/>
+    <hyperlink ref="B29" location="Claims!A1" display="Claims" xr:uid="{A4989A8F-CFC6-47AE-B040-12BC00661236}"/>
     <hyperlink ref="B22" location="Employeemaster!A1" display="Employee master" xr:uid="{81D930A9-D162-44FD-9AFD-0C36E349123A}"/>
-    <hyperlink ref="B27" location="'Phase1-HR-Employeejourney'!A1" display="ExitEmployee" xr:uid="{EFD3782A-BED1-4B83-8E00-6E521B8539B9}"/>
-    <hyperlink ref="B29" location="'Phase1-HR-Employeejourney'!A1" display="onboarding documents" xr:uid="{033DDE7F-6783-4B6B-BBAC-0C0A1B22AD4F}"/>
+    <hyperlink ref="B24" location="'Phase1-HR-Employeejourney'!A1" display="ExitEmployee" xr:uid="{EFD3782A-BED1-4B83-8E00-6E521B8539B9}"/>
+    <hyperlink ref="B23" location="'Phase1-HR-Employeejourney'!A1" display="onboarding documents" xr:uid="{033DDE7F-6783-4B6B-BBAC-0C0A1B22AD4F}"/>
+    <hyperlink ref="B41" location="Employeemaster!A1" display="Employee master" xr:uid="{6468CA02-5134-4009-A6F7-DEAA3259654E}"/>
+    <hyperlink ref="B42" location="'Phase1-HR-Employeejourney'!A1" display="onboarding documents" xr:uid="{082F7B7F-A1ED-4553-AAD9-D1038B4A8CF0}"/>
+    <hyperlink ref="B43" location="'Phase1-HR-Employeejourney'!A1" display="ExitEmployee" xr:uid="{BA4F232D-2023-4869-9E8C-1334B3C71041}"/>
+    <hyperlink ref="B44" location="'Phase1-HR-Employeejourney'!A1" display="Clientmaster" xr:uid="{52A6DACA-C7F7-42D0-8DA4-00CD34459261}"/>
+    <hyperlink ref="B30" location="'Phase1-HR-Employeejourney'!A1" display="ApplyMeritincrease" xr:uid="{0DC47E64-8204-4583-A871-42D621BE0AFB}"/>
+    <hyperlink ref="B45" location="'Phase1-HR-Employeejourney'!A1" display="RTS timesheet" xr:uid="{1DDC1CB4-2728-436A-8746-56FC460BD197}"/>
+    <hyperlink ref="B46" location="timesheets!A1" display="Manual timesheet" xr:uid="{3EAA65B1-0DCD-4058-B1C4-764E9D82E606}"/>
+    <hyperlink ref="B47" location="Leaves!A1" display="Leaves" xr:uid="{84BD21A3-CE76-49CE-82D1-3B9B3BEFC487}"/>
+    <hyperlink ref="B48" location="Claims!A1" display="Claims" xr:uid="{8076CE51-ECF5-41B6-AFD8-3D638DCED36D}"/>
+    <hyperlink ref="B49" location="'Phase1-HR-Employeejourney'!A1" display="ApplyMeritincrease" xr:uid="{7C69E4F8-4559-4FBF-A879-DD7E87B94A01}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4688,10 +5046,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D9C5F05-799C-4916-A93E-C8F23FFA12FF}">
-  <dimension ref="A1:F62"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:F71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4770,7 +5129,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="11" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" s="11" customFormat="1" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>240</v>
       </c>
@@ -4882,7 +5241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B14" s="11" t="s">
         <v>208</v>
       </c>
@@ -4896,7 +5255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="11" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" s="11" customFormat="1" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
         <v>244</v>
       </c>
@@ -4910,7 +5269,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B16" s="1" t="s">
         <v>245</v>
       </c>
@@ -4924,7 +5283,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="s">
         <v>210</v>
       </c>
@@ -4938,7 +5297,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:5" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
         <v>243</v>
       </c>
@@ -4952,7 +5311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:5" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B19" s="1" t="s">
         <v>247</v>
       </c>
@@ -4966,7 +5325,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:5" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B20" s="1" t="s">
         <v>246</v>
       </c>
@@ -4980,7 +5339,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:5" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B21" s="1" t="s">
         <v>211</v>
       </c>
@@ -4994,7 +5353,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:5" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B22" s="1" t="s">
         <v>218</v>
       </c>
@@ -5008,7 +5367,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:5" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B23" s="1" t="s">
         <v>219</v>
       </c>
@@ -5022,7 +5381,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:5" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B24" s="1" t="s">
         <v>212</v>
       </c>
@@ -5036,7 +5395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:5" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B25" s="1" t="s">
         <v>214</v>
       </c>
@@ -5050,7 +5409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:5" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B26" s="1" t="s">
         <v>215</v>
       </c>
@@ -5064,7 +5423,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:5" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B27" s="1" t="s">
         <v>248</v>
       </c>
@@ -5078,7 +5437,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:5" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B28" s="1" t="s">
         <v>249</v>
       </c>
@@ -5092,7 +5451,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="2:5" s="11" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:5" s="11" customFormat="1" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B29" s="1" t="s">
         <v>242</v>
       </c>
@@ -5106,7 +5465,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:5" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B30" s="1" t="s">
         <v>217</v>
       </c>
@@ -5120,7 +5479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:5" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B31" s="1" t="s">
         <v>221</v>
       </c>
@@ -5134,7 +5493,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:5" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B32" s="1" t="s">
         <v>222</v>
       </c>
@@ -5148,7 +5507,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B33" s="1" t="s">
         <v>223</v>
       </c>
@@ -5162,7 +5521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B34" s="1" t="s">
         <v>224</v>
       </c>
@@ -5176,7 +5535,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B35" s="1" t="s">
         <v>225</v>
       </c>
@@ -5190,7 +5549,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:5" s="11" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" s="11" customFormat="1" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" s="11" t="s">
         <v>220</v>
       </c>
@@ -5207,7 +5566,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
         <v>226</v>
       </c>
@@ -5221,7 +5580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" s="15" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B38" s="16" t="s">
         <v>227</v>
       </c>
@@ -5232,7 +5591,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" s="15" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B39" s="16" t="s">
         <v>229</v>
       </c>
@@ -5243,7 +5602,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" s="15" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B40" s="16" t="s">
         <v>230</v>
       </c>
@@ -5254,7 +5613,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="41" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" s="15" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B41" s="16" t="s">
         <v>231</v>
       </c>
@@ -5265,7 +5624,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="42" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" s="15" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B42" s="16" t="s">
         <v>233</v>
       </c>
@@ -5275,8 +5634,11 @@
       <c r="D42" s="15" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E42" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" s="15" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B43" s="16" t="s">
         <v>234</v>
       </c>
@@ -5286,8 +5648,11 @@
       <c r="D43" s="15" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E43" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" s="15" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B44" s="16" t="s">
         <v>235</v>
       </c>
@@ -5297,171 +5662,176 @@
       <c r="D44" s="15" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E44" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" s="15" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B45" s="16" t="s">
-        <v>236</v>
+        <v>22</v>
       </c>
       <c r="C45" s="16" t="s">
         <v>232</v>
       </c>
       <c r="D45" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="E45" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" s="15" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="16" t="s">
+        <v>236</v>
+      </c>
+      <c r="C46" s="16" t="s">
+        <v>232</v>
+      </c>
+      <c r="D46" s="15" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
+      <c r="E46" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
         <v>220</v>
       </c>
-      <c r="B46" s="11" t="s">
+      <c r="B47" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C47" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="D46" s="11" t="s">
+      <c r="D47" s="11" t="s">
         <v>238</v>
       </c>
-      <c r="E46" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B47" t="s">
+      <c r="E47" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B48" t="s">
         <v>198</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C48" t="s">
         <v>197</v>
       </c>
-      <c r="D47" t="s">
-        <v>5</v>
-      </c>
-      <c r="E47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="1" t="s">
+      <c r="D48" t="s">
+        <v>5</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="1" t="s">
         <v>251</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="D48" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E48" s="11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B49" s="11" t="s">
-        <v>237</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>197</v>
       </c>
       <c r="D49" s="11" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="E49" s="11">
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="1" t="s">
-        <v>250</v>
+    <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="11" t="s">
+        <v>237</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>197</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="E50" s="11">
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:5" s="11" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A51" s="11" t="s">
-        <v>220</v>
-      </c>
+    <row r="51" spans="1:5" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B51" s="1" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="D51" s="14" t="s">
-        <v>238</v>
-      </c>
-      <c r="E51" s="14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D51" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E51" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" s="11" customFormat="1" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="11" t="s">
+        <v>220</v>
+      </c>
       <c r="B52" s="1" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>197</v>
       </c>
       <c r="D52" s="14" t="s">
+        <v>238</v>
+      </c>
+      <c r="E52" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B53" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D53" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="E52" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="11"/>
-      <c r="B53" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="C53" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="D53" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E53" s="11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E53" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" s="11"/>
       <c r="B54" s="11" t="s">
-        <v>76</v>
+        <v>118</v>
       </c>
       <c r="C54" s="11" t="s">
         <v>77</v>
       </c>
       <c r="D54" s="11" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E54" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" s="11"/>
       <c r="B55" s="11" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C55" s="11" t="s">
         <v>77</v>
       </c>
       <c r="D55" s="11" t="s">
-        <v>86</v>
+        <v>5</v>
       </c>
       <c r="E55" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" s="11"/>
       <c r="B56" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C56" s="11" t="s">
         <v>77</v>
@@ -5473,40 +5843,40 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" s="11"/>
       <c r="B57" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C57" s="11" t="s">
         <v>77</v>
       </c>
       <c r="D57" s="11" t="s">
-        <v>5</v>
+        <v>86</v>
       </c>
       <c r="E57" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" s="11"/>
       <c r="B58" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C58" s="11" t="s">
         <v>77</v>
       </c>
       <c r="D58" s="11" t="s">
-        <v>86</v>
+        <v>5</v>
       </c>
       <c r="E58" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" s="11"/>
       <c r="B59" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C59" s="11" t="s">
         <v>77</v>
@@ -5518,10 +5888,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" s="11"/>
       <c r="B60" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C60" s="11" t="s">
         <v>77</v>
@@ -5530,33 +5900,174 @@
         <v>86</v>
       </c>
       <c r="E60" s="11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" s="11"/>
       <c r="B61" s="11" t="s">
-        <v>22</v>
+        <v>83</v>
       </c>
       <c r="C61" s="11" t="s">
         <v>77</v>
       </c>
       <c r="D61" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="E61" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="11"/>
+      <c r="B62" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C62" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D62" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="E61" s="11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A62" s="11"/>
-      <c r="B62" s="11"/>
-      <c r="C62" s="11"/>
-      <c r="D62" s="11"/>
-      <c r="E62" s="11"/>
+      <c r="E62" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B63" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="C63" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="D63" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E63" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B64" s="11" t="s">
+        <v>264</v>
+      </c>
+      <c r="C64" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="D64" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E64" s="11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B65" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="C65" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="D65" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E65" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="11"/>
+      <c r="B66" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="C66" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="D66" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E66" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B67" t="s">
+        <v>258</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="D67" t="s">
+        <v>86</v>
+      </c>
+      <c r="E67">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B68" t="s">
+        <v>259</v>
+      </c>
+      <c r="C68" t="s">
+        <v>256</v>
+      </c>
+      <c r="D68" t="s">
+        <v>86</v>
+      </c>
+      <c r="E68">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B69" t="s">
+        <v>261</v>
+      </c>
+      <c r="C69" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="D69" t="s">
+        <v>5</v>
+      </c>
+      <c r="E69">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B70" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="C70" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="D70" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="E70" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B71" t="s">
+        <v>22</v>
+      </c>
+      <c r="C71" t="s">
+        <v>256</v>
+      </c>
+      <c r="D71" t="s">
+        <v>112</v>
+      </c>
+      <c r="E71">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:E61" xr:uid="{F9883F0A-36FE-4DDB-B2EE-60B5C16B414F}"/>
+  <autoFilter ref="A2:E71" xr:uid="{F9883F0A-36FE-4DDB-B2EE-60B5C16B414F}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="employee master"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Heliusapp_project_implementation_plan.xlsx
+++ b/Heliusapp_project_implementation_plan.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HELIUS\Documents\GitHub\projectdocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{675E7E4E-4309-4686-A14F-2E4151692DB0}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F4B394E-CF41-4FAD-A4F7-4478A804F66D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10416" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="981" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1010" uniqueCount="277">
   <si>
     <t>Task</t>
   </si>
@@ -920,6 +920,9 @@
  leaves availed. Updates the system with leave date of the employee
 2. Provides the ability to enter employee specific leave data manually by HR in case of special situations
 3.  leave elibility and utilization  data of the employees for the current year will be gathered and uploaded into system one week before feature goes live</t>
+  </si>
+  <si>
+    <t>Phase I estimate (Revised)</t>
   </si>
 </sst>
 </file>
@@ -1818,7 +1821,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J95"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A91" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B93" sqref="B93:D95"/>
     </sheetView>
   </sheetViews>
@@ -3791,10 +3794,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A160B2E2-282E-4AB4-AF25-F319217CEA66}">
-  <dimension ref="B1:P49"/>
+  <dimension ref="B1:P69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4983,7 +4986,7 @@
         <v>43378</v>
       </c>
     </row>
-    <row r="49" spans="2:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B49" s="12" t="s">
         <v>266</v>
       </c>
@@ -4994,20 +4997,529 @@
         <v>43385</v>
       </c>
     </row>
+    <row r="52" spans="2:16" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C52" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="D52" s="10"/>
+    </row>
+    <row r="53" spans="2:16" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B53" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C53" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="D53" s="19"/>
+      <c r="E53" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="F53" s="19"/>
+      <c r="G53" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="H53" s="19"/>
+      <c r="I53" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="J53" s="19"/>
+      <c r="K53" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="L53" s="19"/>
+      <c r="M53" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="N53" s="19"/>
+      <c r="O53" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="P53" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="54" spans="2:16" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B54" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="C54" s="13">
+        <v>43292</v>
+      </c>
+      <c r="D54" s="13">
+        <v>43306</v>
+      </c>
+      <c r="E54" s="13">
+        <v>43307</v>
+      </c>
+      <c r="F54" s="13">
+        <v>43676</v>
+      </c>
+      <c r="G54" s="13">
+        <v>43312</v>
+      </c>
+      <c r="H54" s="13">
+        <v>43313</v>
+      </c>
+      <c r="I54" s="13">
+        <v>43314</v>
+      </c>
+      <c r="J54" s="13">
+        <v>43315</v>
+      </c>
+      <c r="K54" s="13">
+        <v>43318</v>
+      </c>
+      <c r="L54" s="13">
+        <v>43319</v>
+      </c>
+      <c r="M54" s="13">
+        <v>43320</v>
+      </c>
+      <c r="N54" s="13">
+        <v>43382</v>
+      </c>
+      <c r="O54" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="P54" s="18">
+        <v>43322</v>
+      </c>
+    </row>
+    <row r="55" spans="2:16" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B55" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="C55" s="13">
+        <v>43307</v>
+      </c>
+      <c r="D55" s="13">
+        <v>43315</v>
+      </c>
+      <c r="E55" s="13">
+        <v>43318</v>
+      </c>
+      <c r="F55" s="13">
+        <v>43319</v>
+      </c>
+      <c r="G55" s="13">
+        <v>43320</v>
+      </c>
+      <c r="H55" s="13">
+        <v>43321</v>
+      </c>
+      <c r="I55" s="13">
+        <v>43322</v>
+      </c>
+      <c r="J55" s="13">
+        <v>43325</v>
+      </c>
+      <c r="K55" s="13">
+        <v>43326</v>
+      </c>
+      <c r="L55" s="13">
+        <v>43326</v>
+      </c>
+      <c r="M55" s="13">
+        <v>43328</v>
+      </c>
+      <c r="N55" s="13">
+        <v>43329</v>
+      </c>
+      <c r="O55" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="P55" s="18">
+        <v>43329</v>
+      </c>
+    </row>
+    <row r="56" spans="2:16" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="C56" s="13">
+        <v>43318</v>
+      </c>
+      <c r="D56" s="13">
+        <v>43322</v>
+      </c>
+      <c r="E56" s="13">
+        <v>43332</v>
+      </c>
+      <c r="F56" s="13">
+        <v>43333</v>
+      </c>
+      <c r="G56" s="13">
+        <v>43334</v>
+      </c>
+      <c r="H56" s="13">
+        <v>43335</v>
+      </c>
+      <c r="I56" s="13">
+        <v>43336</v>
+      </c>
+      <c r="J56" s="13">
+        <v>43339</v>
+      </c>
+      <c r="K56" s="13">
+        <v>43340</v>
+      </c>
+      <c r="L56" s="13">
+        <v>43341</v>
+      </c>
+      <c r="M56" s="13">
+        <v>43342</v>
+      </c>
+      <c r="N56" s="13">
+        <v>43343</v>
+      </c>
+      <c r="O56" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="P56" s="18">
+        <v>43343</v>
+      </c>
+    </row>
+    <row r="57" spans="2:16" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="C57" s="13">
+        <v>43292</v>
+      </c>
+      <c r="D57" s="13">
+        <v>43308</v>
+      </c>
+      <c r="E57" s="13">
+        <v>43312</v>
+      </c>
+      <c r="F57" s="13">
+        <v>43314</v>
+      </c>
+      <c r="G57" s="13">
+        <v>43315</v>
+      </c>
+      <c r="H57" s="13">
+        <v>43318</v>
+      </c>
+      <c r="I57" s="13">
+        <v>43319</v>
+      </c>
+      <c r="J57" s="13">
+        <v>43321</v>
+      </c>
+      <c r="K57" s="13">
+        <v>43322</v>
+      </c>
+      <c r="L57" s="13">
+        <v>43325</v>
+      </c>
+      <c r="M57" s="13">
+        <v>43326</v>
+      </c>
+      <c r="N57" s="13">
+        <v>43329</v>
+      </c>
+      <c r="O57" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="P57" s="18">
+        <v>43336</v>
+      </c>
+    </row>
+    <row r="58" spans="2:16" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B58" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C58" s="13">
+        <v>43325</v>
+      </c>
+      <c r="D58" s="13">
+        <v>43332</v>
+      </c>
+      <c r="E58" s="13">
+        <v>43333</v>
+      </c>
+      <c r="F58" s="13">
+        <v>43334</v>
+      </c>
+      <c r="G58" s="13">
+        <v>43335</v>
+      </c>
+      <c r="H58" s="13">
+        <v>43336</v>
+      </c>
+      <c r="I58" s="13">
+        <v>43339</v>
+      </c>
+      <c r="J58" s="13">
+        <v>43340</v>
+      </c>
+      <c r="K58" s="13">
+        <v>43341</v>
+      </c>
+      <c r="L58" s="13">
+        <v>43342</v>
+      </c>
+      <c r="M58" s="13">
+        <v>43346</v>
+      </c>
+      <c r="N58" s="13">
+        <v>43347</v>
+      </c>
+      <c r="O58" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="P58" s="18">
+        <v>43357</v>
+      </c>
+    </row>
+    <row r="59" spans="2:16" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B59" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="C59" s="13">
+        <v>43333</v>
+      </c>
+      <c r="D59" s="13">
+        <v>43341</v>
+      </c>
+      <c r="E59" s="13">
+        <v>43342</v>
+      </c>
+      <c r="F59" s="13">
+        <v>43343</v>
+      </c>
+      <c r="G59" s="13">
+        <v>43344</v>
+      </c>
+      <c r="H59" s="13">
+        <v>43345</v>
+      </c>
+      <c r="I59" s="13">
+        <v>43346</v>
+      </c>
+      <c r="J59" s="13">
+        <v>43347</v>
+      </c>
+      <c r="K59" s="13">
+        <v>43348</v>
+      </c>
+      <c r="L59" s="13">
+        <v>43351</v>
+      </c>
+      <c r="M59" s="13">
+        <v>43352</v>
+      </c>
+      <c r="N59" s="13">
+        <v>43353</v>
+      </c>
+      <c r="O59" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="P59" s="18">
+        <v>43357</v>
+      </c>
+    </row>
+    <row r="60" spans="2:16" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B60" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C60" s="13">
+        <v>43342</v>
+      </c>
+      <c r="D60" s="13">
+        <v>43357</v>
+      </c>
+      <c r="E60" s="13">
+        <v>43360</v>
+      </c>
+      <c r="F60" s="13">
+        <v>43361</v>
+      </c>
+      <c r="G60" s="13">
+        <v>43362</v>
+      </c>
+      <c r="H60" s="13">
+        <v>43363</v>
+      </c>
+      <c r="I60" s="13">
+        <v>43367</v>
+      </c>
+      <c r="J60" s="13">
+        <v>43368</v>
+      </c>
+      <c r="K60" s="13">
+        <v>43369</v>
+      </c>
+      <c r="L60" s="13">
+        <v>43370</v>
+      </c>
+      <c r="M60" s="13">
+        <v>43371</v>
+      </c>
+      <c r="N60" s="13">
+        <v>43374</v>
+      </c>
+      <c r="O60" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="P60" s="18">
+        <v>43374</v>
+      </c>
+    </row>
+    <row r="61" spans="2:16" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B61" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C61" s="13">
+        <v>43342</v>
+      </c>
+      <c r="D61" s="13">
+        <v>43357</v>
+      </c>
+      <c r="E61" s="13">
+        <v>43360</v>
+      </c>
+      <c r="F61" s="13">
+        <v>43361</v>
+      </c>
+      <c r="G61" s="13">
+        <v>43362</v>
+      </c>
+      <c r="H61" s="13">
+        <v>43363</v>
+      </c>
+      <c r="I61" s="13">
+        <v>43367</v>
+      </c>
+      <c r="J61" s="13">
+        <v>43368</v>
+      </c>
+      <c r="K61" s="13">
+        <v>43369</v>
+      </c>
+      <c r="L61" s="13">
+        <v>43370</v>
+      </c>
+      <c r="M61" s="13">
+        <v>43371</v>
+      </c>
+      <c r="N61" s="13">
+        <v>43374</v>
+      </c>
+      <c r="O61" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="P61" s="18">
+        <v>43378</v>
+      </c>
+    </row>
+    <row r="62" spans="2:16" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B62" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="C62" s="18">
+        <v>43360</v>
+      </c>
+      <c r="D62" s="18">
+        <v>43369</v>
+      </c>
+      <c r="E62" s="18">
+        <v>43370</v>
+      </c>
+      <c r="F62" s="18">
+        <v>43371</v>
+      </c>
+      <c r="G62" s="18">
+        <v>43374</v>
+      </c>
+      <c r="H62" s="18">
+        <v>43376</v>
+      </c>
+      <c r="I62" s="18">
+        <v>43377</v>
+      </c>
+      <c r="J62" s="18">
+        <v>43378</v>
+      </c>
+      <c r="K62" s="18">
+        <v>43381</v>
+      </c>
+      <c r="L62" s="18">
+        <v>43382</v>
+      </c>
+      <c r="M62" s="18">
+        <v>43383</v>
+      </c>
+      <c r="N62" s="18">
+        <v>43384</v>
+      </c>
+      <c r="O62" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="P62" s="18">
+        <v>43385</v>
+      </c>
+    </row>
+    <row r="63" spans="2:16" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B63" s="12"/>
+      <c r="C63" s="13"/>
+      <c r="D63" s="13"/>
+      <c r="E63" s="13"/>
+      <c r="F63" s="13"/>
+      <c r="G63" s="13"/>
+      <c r="H63" s="13"/>
+      <c r="I63" s="13"/>
+      <c r="J63" s="13"/>
+      <c r="K63" s="13"/>
+      <c r="L63" s="13"/>
+      <c r="M63" s="13"/>
+      <c r="N63" s="13"/>
+      <c r="P63" s="8"/>
+    </row>
+    <row r="64" spans="2:16" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C64" s="13"/>
+    </row>
+    <row r="65" spans="3:4" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C65" s="13"/>
+    </row>
+    <row r="66" spans="3:4" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C66" s="13"/>
+    </row>
+    <row r="67" spans="3:4" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C67" s="13"/>
+    </row>
+    <row r="68" spans="3:4" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C68" s="13"/>
+    </row>
+    <row r="69" spans="3:4" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C69" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="D69" s="10">
+        <v>43378</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="18">
     <mergeCell ref="M1:N1"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="I1:J1"/>
     <mergeCell ref="K1:L1"/>
+    <mergeCell ref="M53:N53"/>
     <mergeCell ref="M21:N21"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="E21:F21"/>
     <mergeCell ref="G21:H21"/>
     <mergeCell ref="I21:J21"/>
     <mergeCell ref="K21:L21"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="K53:L53"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B3" location="timesheets!A1" display="RTS timesheet" xr:uid="{64988F1E-7502-449B-BE66-02320B324CDA}"/>
@@ -5028,16 +5540,24 @@
     <hyperlink ref="B22" location="Employeemaster!A1" display="Employee master" xr:uid="{81D930A9-D162-44FD-9AFD-0C36E349123A}"/>
     <hyperlink ref="B24" location="'Phase1-HR-Employeejourney'!A1" display="ExitEmployee" xr:uid="{EFD3782A-BED1-4B83-8E00-6E521B8539B9}"/>
     <hyperlink ref="B23" location="'Phase1-HR-Employeejourney'!A1" display="onboarding documents" xr:uid="{033DDE7F-6783-4B6B-BBAC-0C0A1B22AD4F}"/>
-    <hyperlink ref="B41" location="Employeemaster!A1" display="Employee master" xr:uid="{6468CA02-5134-4009-A6F7-DEAA3259654E}"/>
-    <hyperlink ref="B42" location="'Phase1-HR-Employeejourney'!A1" display="onboarding documents" xr:uid="{082F7B7F-A1ED-4553-AAD9-D1038B4A8CF0}"/>
-    <hyperlink ref="B43" location="'Phase1-HR-Employeejourney'!A1" display="ExitEmployee" xr:uid="{BA4F232D-2023-4869-9E8C-1334B3C71041}"/>
-    <hyperlink ref="B44" location="'Phase1-HR-Employeejourney'!A1" display="Clientmaster" xr:uid="{52A6DACA-C7F7-42D0-8DA4-00CD34459261}"/>
     <hyperlink ref="B30" location="'Phase1-HR-Employeejourney'!A1" display="ApplyMeritincrease" xr:uid="{0DC47E64-8204-4583-A871-42D621BE0AFB}"/>
-    <hyperlink ref="B45" location="'Phase1-HR-Employeejourney'!A1" display="RTS timesheet" xr:uid="{1DDC1CB4-2728-436A-8746-56FC460BD197}"/>
     <hyperlink ref="B46" location="timesheets!A1" display="Manual timesheet" xr:uid="{3EAA65B1-0DCD-4058-B1C4-764E9D82E606}"/>
     <hyperlink ref="B47" location="Leaves!A1" display="Leaves" xr:uid="{84BD21A3-CE76-49CE-82D1-3B9B3BEFC487}"/>
     <hyperlink ref="B48" location="Claims!A1" display="Claims" xr:uid="{8076CE51-ECF5-41B6-AFD8-3D638DCED36D}"/>
     <hyperlink ref="B49" location="'Phase1-HR-Employeejourney'!A1" display="ApplyMeritincrease" xr:uid="{7C69E4F8-4559-4FBF-A879-DD7E87B94A01}"/>
+    <hyperlink ref="B45" location="'Phase1-HR-Employeejourney'!A1" display="RTS timesheet" xr:uid="{1DDC1CB4-2728-436A-8746-56FC460BD197}"/>
+    <hyperlink ref="B44" location="'Phase1-HR-Employeejourney'!A1" display="Clientmaster" xr:uid="{52A6DACA-C7F7-42D0-8DA4-00CD34459261}"/>
+    <hyperlink ref="B43" location="'Phase1-HR-Employeejourney'!A1" display="ExitEmployee" xr:uid="{BA4F232D-2023-4869-9E8C-1334B3C71041}"/>
+    <hyperlink ref="B42" location="'Phase1-HR-Employeejourney'!A1" display="onboarding documents" xr:uid="{082F7B7F-A1ED-4553-AAD9-D1038B4A8CF0}"/>
+    <hyperlink ref="B41" location="Employeemaster!A1" display="Employee master" xr:uid="{6468CA02-5134-4009-A6F7-DEAA3259654E}"/>
+    <hyperlink ref="B58" location="timesheets!A1" display="RTS timesheet" xr:uid="{C90FD3BC-E33C-43B8-9EBC-F0174EC16B92}"/>
+    <hyperlink ref="B59" location="timesheets!A1" display="Manual timesheet" xr:uid="{1907642F-7962-47DB-8AE9-5314AE9407BB}"/>
+    <hyperlink ref="B60" location="Leaves!A1" display="Leaves" xr:uid="{5C116E2F-F90F-443F-8ABF-CD4DB2CD3CBB}"/>
+    <hyperlink ref="B61" location="Claims!A1" display="Claims" xr:uid="{DD7E3323-134C-42A1-982F-BD363E6A21B6}"/>
+    <hyperlink ref="B54" location="Employeemaster!A1" display="Employee master" xr:uid="{3F556829-AADF-460B-BB27-AFB552F3099F}"/>
+    <hyperlink ref="B56" location="'Phase1-HR-Employeejourney'!A1" display="ExitEmployee" xr:uid="{12D33AC8-87C4-46B5-B61B-69D0729708E3}"/>
+    <hyperlink ref="B55" location="'Phase1-HR-Employeejourney'!A1" display="onboarding documents" xr:uid="{6BF20465-E5B3-4395-91EC-C726A961CF3B}"/>
+    <hyperlink ref="B62" location="'Phase1-HR-Employeejourney'!A1" display="ApplyMeritincrease" xr:uid="{EB83343A-3C90-4DAC-84F0-8C78466AA507}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
